--- a/src/models/data_slicing.xlsx
+++ b/src/models/data_slicing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Energiebilanzen" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Nutzenergie" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="N6" authorId="0" shapeId="0">
+    <comment ref="S6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0" shapeId="0">
+    <comment ref="T6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P28" authorId="0" shapeId="0">
+    <comment ref="U28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P41" authorId="0" shapeId="0">
+    <comment ref="U41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0" shapeId="0">
+    <comment ref="U46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Untersumme</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P46" authorId="0" shapeId="0">
+    <comment ref="U51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P51" authorId="0" shapeId="0">
+    <comment ref="U54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="0" shapeId="0">
+    <comment ref="B59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,36 +248,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="P54" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Untersumme</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="457">
   <si>
     <t>TWh</t>
   </si>
@@ -1843,19 +1842,31 @@
       <t>EMITTENTS</t>
     </r>
   </si>
+  <si>
+    <t>per_years</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per_energy_sources </t>
+  </si>
+  <si>
+    <t xml:space="preserve">per_aggregates </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€]\ * #,##0.00_-;\-[$€]\ * #,##0.00_-;_-[$€]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="#,##0.000_ ;[Red]\-#,##0.000\ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000_ ;[Red]\-#,##0.0000\ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.000_ ;[Red]\-#,##0.000\ "/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000_ ;[Red]\-#,##0.0000\ "/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2138,8 +2149,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2256,6 +2275,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="39">
     <border>
@@ -2771,9 +2796,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -2788,7 +2813,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2907,111 +2932,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="23" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="35" fillId="9" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3044,10 +2964,10 @@
     <xf numFmtId="165" fontId="38" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="38" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="38" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="38" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="40" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3080,10 +3000,10 @@
     <xf numFmtId="0" fontId="37" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="38" fillId="0" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="38" fillId="0" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="38" fillId="0" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="38" fillId="0" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3114,6 +3034,135 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20 % - Akzent3" xfId="5" builtinId="38"/>
@@ -3143,6 +3192,134 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Geschweifte Klammer rechts 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10300607" y="7211786"/>
+          <a:ext cx="816429" cy="8069035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-AT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>435430</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Textfeld 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11511644" y="10722428"/>
+          <a:ext cx="2245178" cy="993322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2300"/>
+            <a:t>Checked</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-AT" sz="2300" baseline="0"/>
+            <a:t> in function body</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-AT" sz="2300"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3408,10 +3585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R195"/>
+  <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,98 +3603,127 @@
     <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="58.140625" customWidth="1"/>
-    <col min="14" max="14" width="58" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.140625" customWidth="1"/>
-    <col min="16" max="16" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.42578125" style="87"/>
+    <col min="18" max="18" width="58.140625" customWidth="1"/>
+    <col min="19" max="19" width="58" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.140625" customWidth="1"/>
+    <col min="21" max="21" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="127" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>453</v>
+      </c>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="131"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="128"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="134"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="95">
         <v>1</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="92" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="65"/>
-      <c r="M4" s="33" t="s">
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="100"/>
+      <c r="R4" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="S4" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="T4" s="21" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="58"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
-      <c r="M5" s="54" t="s">
+    <row r="5" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="96"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="103"/>
+      <c r="R5" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="20" t="s">
+      <c r="S5" s="116"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="V5" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="W5" s="21" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="M6" s="32" t="s">
+    <row r="6" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="97"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="106"/>
+      <c r="R6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="S6" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="T6" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="U6" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="V6" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="50" t="s">
         <v>304</v>
       </c>
@@ -3548,2067 +3754,2122 @@
       <c r="K7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="S7" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="T7" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="U7" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="V7" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="51">
         <v>2000</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="118" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
-      <c r="M8" s="8" t="s">
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="120"/>
+      <c r="R8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="S8" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="T8" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="U8" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="V8" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="52">
         <v>2001</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="76"/>
-      <c r="M9" s="8" t="s">
+      <c r="C9" s="121"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="123"/>
+      <c r="R9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="27" t="s">
+      <c r="S9" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="T9" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="U9" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="V9" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="52">
         <v>2002</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76"/>
-      <c r="M10" s="8" t="s">
+      <c r="C10" s="121"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="123"/>
+      <c r="R10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="27" t="s">
+      <c r="S10" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="T10" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="U10" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="V10" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79"/>
-      <c r="M11" s="8" t="s">
+      <c r="C11" s="124"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="126"/>
+      <c r="R11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="27" t="s">
+      <c r="S11" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="T11" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="U11" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="V11" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M12" s="9" t="s">
+    <row r="12" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="27" t="s">
+      <c r="S12" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="U12" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="V12" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="57">
+    <row r="13" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="V13" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="V14" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="127" t="s">
+        <v>454</v>
+      </c>
+      <c r="C15" s="129" t="s">
+        <v>455</v>
+      </c>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="131"/>
+      <c r="R15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="V15" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="128"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="134"/>
+      <c r="R16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="V16" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="95">
         <v>2</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B17" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C17" s="98" t="s">
         <v>355</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
-      <c r="M13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q13" s="24" t="s">
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="100"/>
+      <c r="R17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="V17" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="68"/>
-      <c r="M14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q14" s="24" t="s">
+    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="96"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="103"/>
+      <c r="R18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="V18" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="59"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
-      <c r="M15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q15" s="24" t="s">
+    <row r="19" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="97"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="106"/>
+      <c r="R19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="V19" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="50" t="s">
+    <row r="20" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q16" s="24" t="s">
+      <c r="R20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="V20" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+    <row r="21" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C21" s="98" t="s">
         <v>356</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="84"/>
-      <c r="M17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q17" s="24" t="s">
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="108"/>
+      <c r="R21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="V21" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="111"/>
+      <c r="R22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S22" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="V22" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+      <c r="C23" s="109"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="111"/>
+      <c r="R23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="V23" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="109"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="111"/>
+      <c r="R24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="V24" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="111"/>
+      <c r="R25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S25" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="V25" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="109"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
+      <c r="R26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S26" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="V26" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="111"/>
+      <c r="R27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S27" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="V27" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="111"/>
+      <c r="R28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S28" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="V28" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="114"/>
+      <c r="R29" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S29" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="U29" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="V29" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U30" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="V30" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="B31" s="127" t="s">
+        <v>454</v>
+      </c>
+      <c r="C31" s="129" t="s">
+        <v>456</v>
+      </c>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="131"/>
+      <c r="R31" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="U31" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="V31" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="128"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="134"/>
+      <c r="R32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="V32" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="95">
+        <v>3.1</v>
+      </c>
+      <c r="B33" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="98" t="s">
+        <v>358</v>
+      </c>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="100"/>
+      <c r="R33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="U33" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="V33" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="96"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="103"/>
+      <c r="R34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U34" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="V34" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="97"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="106"/>
+      <c r="R35" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="U35" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="V35" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U36" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="V36" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="98" t="s">
+        <v>357</v>
+      </c>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="100"/>
+      <c r="R37" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U37" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="V37" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="101"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="103"/>
+      <c r="R38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U38" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="V38" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="101"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="103"/>
+      <c r="R39" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="V39" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="101"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="103"/>
+      <c r="R40" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U40" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="V40" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="101"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="103"/>
+      <c r="R41" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U41" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="V41" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="104"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="106"/>
+      <c r="R42" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U42" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="V42" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="V43" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="95">
+        <v>3.2</v>
+      </c>
+      <c r="B44" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="98" t="s">
+        <v>359</v>
+      </c>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="100"/>
+      <c r="R44" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="U44" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="V44" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="96"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="103"/>
+      <c r="R45" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="U45" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="V45" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="97"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="106"/>
+      <c r="R46" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="U46" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="V46" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U47" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V47" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B48" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="98" t="s">
+        <v>357</v>
+      </c>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="100"/>
+      <c r="R48" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="U48" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="V48" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="101"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="103"/>
+      <c r="R49" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="U49" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="V49" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="101"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="103"/>
+      <c r="R50" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="U50" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="V50" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="101"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="103"/>
+      <c r="R51" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="U51" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="V51" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B52" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="101"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="103"/>
+      <c r="R52" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="U52" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="V52" s="24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" s="104"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="106"/>
+      <c r="R53" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="U53" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="V53" s="24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R54" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U54" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="V54" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="95">
+        <v>3.3</v>
+      </c>
+      <c r="B55" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="98" t="s">
+        <v>360</v>
+      </c>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="100"/>
+      <c r="R55" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="U55" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="V55" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="96"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="103"/>
+      <c r="R56" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="U56" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="V56" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="97"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="106"/>
+      <c r="R57" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="U57" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="V57" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R58" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U58" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="V58" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="85"/>
-      <c r="M18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q18" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="85"/>
-      <c r="M19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q19" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="85"/>
-      <c r="M20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q20" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="85"/>
-      <c r="M21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q21" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="85"/>
-      <c r="M22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q22" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="59" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="98" t="s">
+        <v>357</v>
+      </c>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99"/>
+      <c r="J59" s="99"/>
+      <c r="K59" s="100"/>
+      <c r="R59" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="U59" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="V59" s="24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="101"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="102"/>
+      <c r="I60" s="102"/>
+      <c r="J60" s="102"/>
+      <c r="K60" s="103"/>
+      <c r="R60" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="U60" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="V60" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" s="101"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="103"/>
+      <c r="R61" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="U61" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="V61" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" s="101"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="103"/>
+      <c r="R62" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="U62" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="85"/>
-      <c r="M23" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q23" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="85"/>
-      <c r="M24" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q24" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="88"/>
-      <c r="M25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q25" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q26" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="57">
-        <v>3.1</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>358</v>
-      </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
-      <c r="M27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="P27" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q27" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="68"/>
-      <c r="M28" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q28" s="24" t="s">
+      <c r="V62" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" s="101"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="102"/>
+      <c r="G63" s="102"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="102"/>
+      <c r="K63" s="103"/>
+      <c r="R63" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="U63" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="V63" s="25" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="59"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="71"/>
-      <c r="M29" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N29" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q29" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P30" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q30" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B31" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="65"/>
-      <c r="M31" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="P31" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q31" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="68"/>
-      <c r="M32" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P32" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q32" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="68"/>
-      <c r="M33" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q33" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="68"/>
-      <c r="M34" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q34" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="68"/>
-      <c r="M35" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P35" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q35" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="71"/>
-      <c r="M36" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P36" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q36" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M37" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="P37" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q37" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57">
-        <v>3.2</v>
-      </c>
-      <c r="B38" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="65"/>
-      <c r="M38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P38" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q38" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="68"/>
-      <c r="M39" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="P39" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q39" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="71"/>
-      <c r="M40" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P40" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q40" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="P41" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q41" s="24" t="s">
+    <row r="64" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C64" s="104"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="105"/>
+      <c r="H64" s="105"/>
+      <c r="I64" s="105"/>
+      <c r="J64" s="105"/>
+      <c r="K64" s="106"/>
+      <c r="R64" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="U64" s="18" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="C42" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="65"/>
-      <c r="M42" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="P42" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q42" s="24" t="s">
+    <row r="65" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R65" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="U65" s="18" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="68"/>
-      <c r="M43" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="P43" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q43" s="24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="68"/>
-      <c r="M44" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="P44" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q44" s="24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="68"/>
-      <c r="M45" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P45" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q45" s="24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="68"/>
-      <c r="M46" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="P46" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q46" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="71"/>
-      <c r="M47" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="P47" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q47" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="P48" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q48" s="24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="57">
-        <v>3.3</v>
-      </c>
-      <c r="B49" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="63" t="s">
-        <v>360</v>
-      </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="65"/>
-      <c r="M49" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="P49" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q49" s="24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="68"/>
-      <c r="M50" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="P50" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q50" s="24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="71"/>
-      <c r="M51" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="P51" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q51" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="P52" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q52" s="24" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="C53" s="63" t="s">
-        <v>357</v>
-      </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="65"/>
-      <c r="M53" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="P53" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q53" s="24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="68"/>
-      <c r="M54" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="P54" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q54" s="24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B55" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="68"/>
-      <c r="M55" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="P55" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q55" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="68"/>
-      <c r="M56" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P56" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q56" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="68"/>
-      <c r="M57" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="P57" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q57" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="C58" s="69"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="71"/>
-      <c r="M58" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="P58" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q58" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M59" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="P59" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q59" s="24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M60" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="P60" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q60" s="24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M61" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P61" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q61" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M62" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P62" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q62" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M63" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="P63" s="90" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q63" s="25" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="M64" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="P64" s="18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M65" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="P65" s="18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="66" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M66" s="12" t="s">
+    <row r="66" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R66" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M67" s="12" t="s">
+    <row r="67" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R67" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M68" s="13" t="s">
+    <row r="68" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R68" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M69" s="13" t="s">
+    <row r="69" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R69" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M70" s="12" t="s">
+    <row r="70" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R70" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M71" s="13" t="s">
+    <row r="71" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R71" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M72" s="13" t="s">
+    <row r="72" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R72" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M73" s="12" t="s">
+    <row r="73" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R73" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M74" s="13" t="s">
+    <row r="74" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R74" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M75" s="13" t="s">
+    <row r="75" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R75" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M76" s="13" t="s">
+    <row r="76" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R76" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M77" s="13" t="s">
+    <row r="77" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R77" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M78" s="13" t="s">
+    <row r="78" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R78" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M79" s="13" t="s">
+    <row r="79" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R79" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="13:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="M80" s="13" t="s">
+    <row r="80" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="R80" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M81" s="13" t="s">
+    <row r="81" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R81" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M82" s="13" t="s">
+    <row r="82" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R82" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M83" s="13" t="s">
+    <row r="83" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R83" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M84" s="12" t="s">
+    <row r="84" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R84" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M85" s="13" t="s">
+    <row r="85" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R85" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M86" s="13" t="s">
+    <row r="86" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R86" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M87" s="13" t="s">
+    <row r="87" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R87" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M88" s="12" t="s">
+    <row r="88" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R88" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M89" s="13" t="s">
+    <row r="89" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R89" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M90" s="13" t="s">
+    <row r="90" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R90" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M91" s="13" t="s">
+    <row r="91" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R91" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M92" s="10" t="s">
+    <row r="92" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R92" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M93" s="11" t="s">
+    <row r="93" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R93" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M94" s="12" t="s">
+    <row r="94" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R94" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M95" s="12" t="s">
+    <row r="95" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R95" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M96" s="12" t="s">
+    <row r="96" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R96" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M97" s="12" t="s">
+    <row r="97" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R97" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M98" s="12" t="s">
+    <row r="98" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R98" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M99" s="13" t="s">
+    <row r="99" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R99" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M100" s="13" t="s">
+    <row r="100" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R100" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M101" s="12" t="s">
+    <row r="101" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R101" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M102" s="13" t="s">
+    <row r="102" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R102" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M103" s="13" t="s">
+    <row r="103" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R103" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M104" s="12" t="s">
+    <row r="104" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R104" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M105" s="13" t="s">
+    <row r="105" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R105" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M106" s="13" t="s">
+    <row r="106" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R106" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M107" s="13" t="s">
+    <row r="107" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R107" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M108" s="13" t="s">
+    <row r="108" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R108" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M109" s="13" t="s">
+    <row r="109" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R109" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M110" s="13" t="s">
+    <row r="110" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R110" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M111" s="13" t="s">
+    <row r="111" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R111" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M112" s="13" t="s">
+    <row r="112" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R112" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="113" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M113" s="13" t="s">
+    <row r="113" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R113" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M114" s="13" t="s">
+    <row r="114" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R114" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M115" s="12" t="s">
+    <row r="115" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R115" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M116" s="12" t="s">
+    <row r="116" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R116" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M117" s="11" t="s">
+    <row r="117" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R117" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="118" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M118" s="12" t="s">
+    <row r="118" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R118" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="119" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M119" s="12" t="s">
+    <row r="119" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R119" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="120" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M120" s="12" t="s">
+    <row r="120" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R120" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M121" s="12" t="s">
+    <row r="121" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R121" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="122" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M122" s="12" t="s">
+    <row r="122" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R122" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M123" s="13" t="s">
+    <row r="123" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R123" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="124" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M124" s="13" t="s">
+    <row r="124" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R124" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M125" s="12" t="s">
+    <row r="125" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R125" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M126" s="13" t="s">
+    <row r="126" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R126" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="127" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M127" s="13" t="s">
+    <row r="127" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R127" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M128" s="12" t="s">
+    <row r="128" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R128" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="129" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M129" s="13" t="s">
+    <row r="129" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R129" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="130" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M130" s="13" t="s">
+    <row r="130" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R130" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="131" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M131" s="13" t="s">
+    <row r="131" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R131" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M132" s="13" t="s">
+    <row r="132" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R132" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="133" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M133" s="13" t="s">
+    <row r="133" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R133" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M134" s="13" t="s">
+    <row r="134" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R134" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="135" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M135" s="13" t="s">
+    <row r="135" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R135" s="13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="136" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M136" s="13" t="s">
+    <row r="136" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R136" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="137" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M137" s="13" t="s">
+    <row r="137" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R137" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M138" s="13" t="s">
+    <row r="138" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R138" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="139" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M139" s="12" t="s">
+    <row r="139" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R139" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="140" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M140" s="12" t="s">
+    <row r="140" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R140" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="141" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M141" s="10" t="s">
+    <row r="141" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R141" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M142" s="11" t="s">
+    <row r="142" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R142" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="143" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M143" s="12" t="s">
+    <row r="143" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R143" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="144" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M144" s="12" t="s">
+    <row r="144" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R144" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="145" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M145" s="12" t="s">
+    <row r="145" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R145" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="146" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M146" s="12" t="s">
+    <row r="146" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R146" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="147" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M147" s="12" t="s">
+    <row r="147" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R147" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M148" s="13" t="s">
+    <row r="148" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R148" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="149" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M149" s="13" t="s">
+    <row r="149" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R149" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="150" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M150" s="12" t="s">
+    <row r="150" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R150" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="151" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M151" s="13" t="s">
+    <row r="151" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R151" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="152" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M152" s="13" t="s">
+    <row r="152" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R152" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="153" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M153" s="12" t="s">
+    <row r="153" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R153" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="154" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M154" s="13" t="s">
+    <row r="154" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R154" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="155" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M155" s="13" t="s">
+    <row r="155" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R155" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="156" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M156" s="13" t="s">
+    <row r="156" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R156" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="157" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M157" s="13" t="s">
+    <row r="157" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R157" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="158" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M158" s="13" t="s">
+    <row r="158" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R158" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="159" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M159" s="13" t="s">
+    <row r="159" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R159" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="160" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M160" s="13" t="s">
+    <row r="160" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R160" s="13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="161" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M161" s="13" t="s">
+    <row r="161" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R161" s="13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="162" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M162" s="13" t="s">
+    <row r="162" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R162" s="13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="163" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M163" s="13" t="s">
+    <row r="163" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R163" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="164" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M164" s="12" t="s">
+    <row r="164" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R164" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="165" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M165" s="12" t="s">
+    <row r="165" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R165" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="166" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M166" s="11" t="s">
+    <row r="166" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R166" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="167" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M167" s="12" t="s">
+    <row r="167" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R167" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="168" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M168" s="12" t="s">
+    <row r="168" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R168" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="169" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M169" s="12" t="s">
+    <row r="169" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R169" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="170" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M170" s="12" t="s">
+    <row r="170" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R170" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="171" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M171" s="12" t="s">
+    <row r="171" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R171" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="172" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M172" s="13" t="s">
+    <row r="172" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R172" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="173" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M173" s="13" t="s">
+    <row r="173" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R173" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="174" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M174" s="12" t="s">
+    <row r="174" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R174" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="175" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M175" s="13" t="s">
+    <row r="175" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R175" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="176" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M176" s="13" t="s">
+    <row r="176" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R176" s="13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="177" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M177" s="12" t="s">
+    <row r="177" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R177" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="178" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M178" s="13" t="s">
+    <row r="178" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R178" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="179" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M179" s="13" t="s">
+    <row r="179" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R179" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="180" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M180" s="13" t="s">
+    <row r="180" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R180" s="13" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="181" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M181" s="13" t="s">
+    <row r="181" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R181" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="182" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M182" s="13" t="s">
+    <row r="182" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R182" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="183" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M183" s="13" t="s">
+    <row r="183" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R183" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="184" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M184" s="13" t="s">
+    <row r="184" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R184" s="13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M185" s="13" t="s">
+    <row r="185" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R185" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="186" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M186" s="13" t="s">
+    <row r="186" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R186" s="13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="187" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M187" s="13" t="s">
+    <row r="187" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R187" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="188" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M188" s="12" t="s">
+    <row r="188" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R188" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="189" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M189" s="12" t="s">
+    <row r="189" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R189" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="190" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M190" s="10" t="s">
+    <row r="190" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R190" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="191" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M191" s="8" t="s">
+    <row r="191" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R191" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="192" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M192" s="8" t="s">
+    <row r="192" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R192" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="193" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M193" s="8" t="s">
+    <row r="193" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R193" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="194" spans="13:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="M194" s="8" t="s">
+    <row r="194" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R194" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="195" spans="13:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M195" s="14" t="s">
+    <row r="195" spans="18:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R195" s="14" t="s">
         <v>215</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="C42:K47"/>
-    <mergeCell ref="C49:K51"/>
-    <mergeCell ref="C53:K58"/>
-    <mergeCell ref="C31:K36"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:K40"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:K15"/>
-    <mergeCell ref="C17:K25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:K29"/>
-    <mergeCell ref="M5:O5"/>
+  <mergeCells count="27">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:K3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:K16"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:K32"/>
+    <mergeCell ref="R5:T5"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:K6"/>
     <mergeCell ref="C8:K11"/>
+    <mergeCell ref="C37:K42"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:K46"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:K19"/>
+    <mergeCell ref="C21:K29"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:K35"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="C48:K53"/>
+    <mergeCell ref="C55:K57"/>
+    <mergeCell ref="C59:K64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5616,69 +5877,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57">
+      <c r="A2" s="95">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="92" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="98" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
-      <c r="M2" s="123" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
+      <c r="M2" s="88" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68"/>
-      <c r="M3" s="124" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
+      <c r="M3" s="89" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="M4" s="125" t="s">
+      <c r="A4" s="97"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="106"/>
+      <c r="M4" s="90" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="122"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="50" t="s">
         <v>304</v>
       </c>
@@ -5709,147 +5973,147 @@
       <c r="K5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="125" t="s">
+      <c r="M5" s="90" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="51">
         <v>2000</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="118" t="s">
         <v>353</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="73"/>
-      <c r="M6" s="125" t="s">
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
+      <c r="M6" s="90" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="52">
         <v>2001</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
-      <c r="M7" s="125" t="s">
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="123"/>
+      <c r="M7" s="90" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="52">
         <v>2002</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76"/>
-      <c r="M8" s="125" t="s">
+      <c r="C8" s="121"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
+      <c r="M8" s="90" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="122"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="79"/>
-      <c r="M9" s="125" t="s">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="126"/>
+      <c r="M9" s="90" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="122"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="M10" s="126" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="M10" s="91" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="57">
+      <c r="A11" s="95">
         <v>2</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="98" t="s">
         <v>452</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="100"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="68"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="103"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="71"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="106"/>
     </row>
     <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="122"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="50" t="s">
         <v>304</v>
       </c>
@@ -5882,129 +6146,129 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
-      <c r="B15" s="124" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="98" t="s">
         <v>356</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="65"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="100"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
-      <c r="B16" s="125" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="90" t="s">
         <v>445</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="103"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
-      <c r="B17" s="125" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="90" t="s">
         <v>446</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="103"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
-      <c r="B18" s="125" t="s">
+      <c r="A18" s="87"/>
+      <c r="B18" s="90" t="s">
         <v>447</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="103"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
-      <c r="B19" s="125" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="103"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="122"/>
-      <c r="B20" s="125" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="90" t="s">
         <v>448</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="68"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="103"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
-      <c r="B21" s="125" t="s">
+      <c r="A21" s="87"/>
+      <c r="B21" s="90" t="s">
         <v>449</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="103"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="122"/>
-      <c r="B22" s="126" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="91" t="s">
         <v>450</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="71"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="106"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
+      <c r="A23" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6050,82 +6314,82 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57">
+      <c r="A2" s="95">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="92" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="98" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68"/>
-      <c r="M3" s="109" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
+      <c r="M3" s="74" t="s">
         <v>361</v>
       </c>
-      <c r="N3" s="110" t="s">
+      <c r="N3" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="110" t="s">
+      <c r="O3" s="75" t="s">
         <v>362</v>
       </c>
-      <c r="P3" s="110" t="s">
+      <c r="P3" s="75" t="s">
         <v>363</v>
       </c>
-      <c r="Q3" s="111" t="s">
+      <c r="Q3" s="76" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="M4" s="112">
+      <c r="A4" s="97"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="106"/>
+      <c r="M4" s="77">
         <v>5</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="59" t="s">
         <v>365</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="P4" s="95">
+      <c r="P4" s="60">
         <v>1</v>
       </c>
-      <c r="Q4" s="92" t="s">
+      <c r="Q4" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="50" t="s">
         <v>304</v>
       </c>
@@ -6156,1197 +6420,1197 @@
       <c r="K5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="112">
+      <c r="M5" s="77">
         <v>6</v>
       </c>
-      <c r="N5" s="94" t="s">
+      <c r="N5" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="O5" s="95" t="s">
+      <c r="O5" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="P5" s="95">
+      <c r="P5" s="60">
         <v>1</v>
       </c>
-      <c r="Q5" s="92" t="s">
+      <c r="Q5" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="51">
         <v>2000</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="118" t="s">
         <v>353</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="73"/>
-      <c r="M6" s="112">
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
+      <c r="M6" s="77">
         <v>7</v>
       </c>
-      <c r="N6" s="94" t="s">
+      <c r="N6" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="O6" s="95" t="s">
+      <c r="O6" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="P6" s="95">
+      <c r="P6" s="60">
         <v>1</v>
       </c>
-      <c r="Q6" s="92" t="s">
+      <c r="Q6" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="52">
         <v>2001</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
-      <c r="M7" s="112">
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="123"/>
+      <c r="M7" s="77">
         <v>8</v>
       </c>
-      <c r="N7" s="94" t="s">
+      <c r="N7" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="P7" s="95">
+      <c r="P7" s="60">
         <v>1</v>
       </c>
-      <c r="Q7" s="92" t="s">
+      <c r="Q7" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="52">
         <v>2002</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76"/>
-      <c r="M8" s="112">
+      <c r="C8" s="121"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
+      <c r="M8" s="77">
         <v>9</v>
       </c>
-      <c r="N8" s="94" t="s">
+      <c r="N8" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="O8" s="95" t="s">
+      <c r="O8" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="P8" s="95">
+      <c r="P8" s="60">
         <v>1</v>
       </c>
-      <c r="Q8" s="92" t="s">
+      <c r="Q8" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="53" t="s">
         <v>351</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="79"/>
-      <c r="M9" s="112">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="126"/>
+      <c r="M9" s="77">
         <v>10</v>
       </c>
-      <c r="N9" s="94" t="s">
+      <c r="N9" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="O9" s="95" t="s">
+      <c r="O9" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="P9" s="95">
+      <c r="P9" s="60">
         <v>1</v>
       </c>
-      <c r="Q9" s="92" t="s">
+      <c r="Q9" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="M10" s="112">
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="M10" s="77">
         <v>11</v>
       </c>
-      <c r="N10" s="96" t="s">
+      <c r="N10" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="O10" s="95" t="s">
+      <c r="O10" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="P10" s="95">
+      <c r="P10" s="60">
         <v>1</v>
       </c>
-      <c r="Q10" s="92" t="s">
+      <c r="Q10" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="M11" s="112">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="M11" s="77">
         <v>12</v>
       </c>
-      <c r="N11" s="97" t="s">
+      <c r="N11" s="62" t="s">
         <v>373</v>
       </c>
-      <c r="O11" s="95" t="s">
+      <c r="O11" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="P11" s="95">
+      <c r="P11" s="60">
         <v>1</v>
       </c>
-      <c r="Q11" s="92" t="s">
+      <c r="Q11" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M12" s="112">
+      <c r="M12" s="77">
         <v>13</v>
       </c>
-      <c r="N12" s="97" t="s">
+      <c r="N12" s="62" t="s">
         <v>374</v>
       </c>
-      <c r="O12" s="95" t="s">
+      <c r="O12" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="P12" s="95">
+      <c r="P12" s="60">
         <v>1</v>
       </c>
-      <c r="Q12" s="92" t="s">
+      <c r="Q12" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M13" s="112">
+      <c r="M13" s="77">
         <v>14</v>
       </c>
-      <c r="N13" s="97" t="s">
+      <c r="N13" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="O13" s="95" t="s">
+      <c r="O13" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="P13" s="95">
+      <c r="P13" s="60">
         <v>1</v>
       </c>
-      <c r="Q13" s="92" t="s">
+      <c r="Q13" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M14" s="112">
+      <c r="M14" s="77">
         <v>15</v>
       </c>
-      <c r="N14" s="97" t="s">
+      <c r="N14" s="62" t="s">
         <v>376</v>
       </c>
-      <c r="O14" s="95" t="s">
+      <c r="O14" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="P14" s="95">
+      <c r="P14" s="60">
         <v>1</v>
       </c>
-      <c r="Q14" s="92" t="s">
+      <c r="Q14" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M15" s="112">
+      <c r="M15" s="77">
         <v>16</v>
       </c>
-      <c r="N15" s="98" t="s">
+      <c r="N15" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="O15" s="95" t="s">
+      <c r="O15" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="P15" s="95">
+      <c r="P15" s="60">
         <v>1</v>
       </c>
-      <c r="Q15" s="92" t="s">
+      <c r="Q15" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M16" s="112">
+      <c r="M16" s="77">
         <v>17</v>
       </c>
-      <c r="N16" s="98" t="s">
+      <c r="N16" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="O16" s="95" t="s">
+      <c r="O16" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="P16" s="95">
+      <c r="P16" s="60">
         <v>1</v>
       </c>
-      <c r="Q16" s="92" t="s">
+      <c r="Q16" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="17" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M17" s="112">
+      <c r="M17" s="77">
         <v>18</v>
       </c>
-      <c r="N17" s="97" t="s">
+      <c r="N17" s="62" t="s">
         <v>379</v>
       </c>
-      <c r="O17" s="95" t="s">
+      <c r="O17" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="P17" s="95">
+      <c r="P17" s="60">
         <v>1</v>
       </c>
-      <c r="Q17" s="92" t="s">
+      <c r="Q17" s="57" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="18" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M18" s="112">
+      <c r="M18" s="77">
         <v>19</v>
       </c>
-      <c r="N18" s="98" t="s">
+      <c r="N18" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="O18" s="99" t="s">
+      <c r="O18" s="64" t="s">
         <v>382</v>
       </c>
-      <c r="P18" s="95">
+      <c r="P18" s="60">
         <v>1</v>
       </c>
-      <c r="Q18" s="93" t="s">
+      <c r="Q18" s="58" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="19" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M19" s="112">
+      <c r="M19" s="77">
         <v>20</v>
       </c>
-      <c r="N19" s="98" t="s">
+      <c r="N19" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="O19" s="99" t="s">
+      <c r="O19" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="P19" s="95">
+      <c r="P19" s="60">
         <v>1</v>
       </c>
-      <c r="Q19" s="93" t="s">
+      <c r="Q19" s="58" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="20" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M20" s="112">
+      <c r="M20" s="77">
         <v>21</v>
       </c>
-      <c r="N20" s="97" t="s">
+      <c r="N20" s="62" t="s">
         <v>385</v>
       </c>
-      <c r="O20" s="100" t="s">
+      <c r="O20" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="P20" s="101">
+      <c r="P20" s="66">
         <v>3.599712023038157E-3</v>
       </c>
-      <c r="Q20" s="113" t="s">
+      <c r="Q20" s="78" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="21" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M21" s="112">
+      <c r="M21" s="77">
         <v>22</v>
       </c>
-      <c r="N21" s="98" t="s">
+      <c r="N21" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="O21" s="100" t="s">
+      <c r="O21" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="P21" s="101">
+      <c r="P21" s="66">
         <v>3.599712023038157E-3</v>
       </c>
-      <c r="Q21" s="113" t="s">
+      <c r="Q21" s="78" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="22" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M22" s="112">
+      <c r="M22" s="77">
         <v>23</v>
       </c>
-      <c r="N22" s="98" t="s">
+      <c r="N22" s="63" t="s">
         <v>388</v>
       </c>
-      <c r="O22" s="99" t="s">
+      <c r="O22" s="64" t="s">
         <v>382</v>
       </c>
-      <c r="P22" s="99">
+      <c r="P22" s="64">
         <v>1</v>
       </c>
-      <c r="Q22" s="93" t="s">
+      <c r="Q22" s="58" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="23" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M23" s="112">
+      <c r="M23" s="77">
         <v>24</v>
       </c>
-      <c r="N23" s="97" t="s">
+      <c r="N23" s="62" t="s">
         <v>389</v>
       </c>
-      <c r="O23" s="100" t="s">
+      <c r="O23" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="P23" s="101">
+      <c r="P23" s="66">
         <v>3.599712023038157E-3</v>
       </c>
-      <c r="Q23" s="114" t="s">
+      <c r="Q23" s="79" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="24" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M24" s="112">
+      <c r="M24" s="77">
         <v>25</v>
       </c>
-      <c r="N24" s="94" t="s">
+      <c r="N24" s="59" t="s">
         <v>390</v>
       </c>
-      <c r="O24" s="99" t="s">
+      <c r="O24" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="P24" s="99">
+      <c r="P24" s="64">
         <v>1</v>
       </c>
-      <c r="Q24" s="93" t="s">
+      <c r="Q24" s="58" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="25" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M25" s="112">
+      <c r="M25" s="77">
         <v>26</v>
       </c>
-      <c r="N25" s="96" t="s">
+      <c r="N25" s="61" t="s">
         <v>391</v>
       </c>
-      <c r="O25" s="100" t="s">
+      <c r="O25" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="P25" s="101">
+      <c r="P25" s="66">
         <v>3.599712023038157E-3</v>
       </c>
-      <c r="Q25" s="113" t="s">
+      <c r="Q25" s="78" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="26" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M26" s="112">
+      <c r="M26" s="77">
         <v>27</v>
       </c>
-      <c r="N26" s="97" t="s">
+      <c r="N26" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="O26" s="100" t="s">
+      <c r="O26" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="P26" s="101">
+      <c r="P26" s="66">
         <v>3.599712023038157E-3</v>
       </c>
-      <c r="Q26" s="113" t="s">
+      <c r="Q26" s="78" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="27" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M27" s="112">
+      <c r="M27" s="77">
         <v>28</v>
       </c>
-      <c r="N27" s="97" t="s">
+      <c r="N27" s="62" t="s">
         <v>393</v>
       </c>
-      <c r="O27" s="100" t="s">
+      <c r="O27" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="P27" s="101">
+      <c r="P27" s="66">
         <v>3.599712023038157E-3</v>
       </c>
-      <c r="Q27" s="113" t="s">
+      <c r="Q27" s="78" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="28" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M28" s="112">
+      <c r="M28" s="77">
         <v>29</v>
       </c>
-      <c r="N28" s="97" t="s">
+      <c r="N28" s="62" t="s">
         <v>394</v>
       </c>
-      <c r="O28" s="100" t="s">
+      <c r="O28" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="115"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="80"/>
     </row>
     <row r="29" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M29" s="112">
+      <c r="M29" s="77">
         <v>30</v>
       </c>
-      <c r="N29" s="97" t="s">
+      <c r="N29" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="O29" s="100" t="s">
+      <c r="O29" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="P29" s="102">
+      <c r="P29" s="67">
         <v>1E-3</v>
       </c>
-      <c r="Q29" s="115" t="s">
+      <c r="Q29" s="80" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="30" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M30" s="112">
+      <c r="M30" s="77">
         <v>31</v>
       </c>
-      <c r="N30" s="98" t="s">
+      <c r="N30" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="O30" s="100" t="s">
+      <c r="O30" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="P30" s="102">
+      <c r="P30" s="67">
         <v>1E-3</v>
       </c>
-      <c r="Q30" s="115" t="s">
+      <c r="Q30" s="80" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="31" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M31" s="112">
+      <c r="M31" s="77">
         <v>32</v>
       </c>
-      <c r="N31" s="103" t="s">
+      <c r="N31" s="68" t="s">
         <v>398</v>
       </c>
-      <c r="O31" s="100" t="s">
+      <c r="O31" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="P31" s="101">
+      <c r="P31" s="66">
         <v>3.599712023038157E-3</v>
       </c>
-      <c r="Q31" s="113" t="s">
+      <c r="Q31" s="78" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="32" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M32" s="112">
+      <c r="M32" s="77">
         <v>33</v>
       </c>
-      <c r="N32" s="103" t="s">
+      <c r="N32" s="68" t="s">
         <v>399</v>
       </c>
-      <c r="O32" s="100" t="s">
+      <c r="O32" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="P32" s="101">
+      <c r="P32" s="66">
         <v>3.599712023038157E-3</v>
       </c>
-      <c r="Q32" s="113" t="s">
+      <c r="Q32" s="78" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="33" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M33" s="112">
+      <c r="M33" s="77">
         <v>34</v>
       </c>
-      <c r="N33" s="103" t="s">
+      <c r="N33" s="68" t="s">
         <v>400</v>
       </c>
-      <c r="O33" s="100" t="s">
+      <c r="O33" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="P33" s="101">
+      <c r="P33" s="66">
         <v>3.599712023038157E-3</v>
       </c>
-      <c r="Q33" s="113" t="s">
+      <c r="Q33" s="78" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="34" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M34" s="112">
+      <c r="M34" s="77">
         <v>35</v>
       </c>
-      <c r="N34" s="103" t="s">
+      <c r="N34" s="68" t="s">
         <v>401</v>
       </c>
-      <c r="O34" s="100" t="s">
+      <c r="O34" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="P34" s="101">
+      <c r="P34" s="66">
         <v>3.599712023038157E-3</v>
       </c>
-      <c r="Q34" s="113" t="s">
+      <c r="Q34" s="78" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="35" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M35" s="112">
+      <c r="M35" s="77">
         <v>36</v>
       </c>
-      <c r="N35" s="103" t="s">
+      <c r="N35" s="68" t="s">
         <v>402</v>
       </c>
-      <c r="O35" s="104" t="s">
+      <c r="O35" s="69" t="s">
         <v>380</v>
       </c>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="116"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="81"/>
     </row>
     <row r="36" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M36" s="112">
+      <c r="M36" s="77">
         <v>37</v>
       </c>
-      <c r="N36" s="105" t="s">
+      <c r="N36" s="70" t="s">
         <v>403</v>
       </c>
-      <c r="O36" s="106" t="s">
+      <c r="O36" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P36" s="95">
+      <c r="P36" s="60">
         <v>1</v>
       </c>
-      <c r="Q36" s="92" t="s">
+      <c r="Q36" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="37" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M37" s="112">
+      <c r="M37" s="77">
         <v>38</v>
       </c>
-      <c r="N37" s="105" t="s">
+      <c r="N37" s="70" t="s">
         <v>404</v>
       </c>
-      <c r="O37" s="106" t="s">
+      <c r="O37" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P37" s="95">
+      <c r="P37" s="60">
         <v>1</v>
       </c>
-      <c r="Q37" s="92" t="s">
+      <c r="Q37" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="38" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M38" s="112">
+      <c r="M38" s="77">
         <v>39</v>
       </c>
-      <c r="N38" s="103" t="s">
+      <c r="N38" s="68" t="s">
         <v>405</v>
       </c>
-      <c r="O38" s="106" t="s">
+      <c r="O38" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P38" s="95">
+      <c r="P38" s="60">
         <v>1</v>
       </c>
-      <c r="Q38" s="92" t="s">
+      <c r="Q38" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="39" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M39" s="112">
+      <c r="M39" s="77">
         <v>40</v>
       </c>
-      <c r="N39" s="105" t="s">
+      <c r="N39" s="70" t="s">
         <v>406</v>
       </c>
-      <c r="O39" s="106" t="s">
+      <c r="O39" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P39" s="95">
+      <c r="P39" s="60">
         <v>1</v>
       </c>
-      <c r="Q39" s="92" t="s">
+      <c r="Q39" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="40" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M40" s="112">
+      <c r="M40" s="77">
         <v>41</v>
       </c>
-      <c r="N40" s="105" t="s">
+      <c r="N40" s="70" t="s">
         <v>407</v>
       </c>
-      <c r="O40" s="106" t="s">
+      <c r="O40" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P40" s="95">
+      <c r="P40" s="60">
         <v>1</v>
       </c>
-      <c r="Q40" s="92" t="s">
+      <c r="Q40" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="41" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M41" s="112">
+      <c r="M41" s="77">
         <v>42</v>
       </c>
-      <c r="N41" s="103" t="s">
+      <c r="N41" s="68" t="s">
         <v>408</v>
       </c>
-      <c r="O41" s="106" t="s">
+      <c r="O41" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P41" s="95">
+      <c r="P41" s="60">
         <v>1</v>
       </c>
-      <c r="Q41" s="92" t="s">
+      <c r="Q41" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="42" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M42" s="112">
+      <c r="M42" s="77">
         <v>43</v>
       </c>
-      <c r="N42" s="105" t="s">
+      <c r="N42" s="70" t="s">
         <v>409</v>
       </c>
-      <c r="O42" s="100" t="s">
+      <c r="O42" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="P42" s="101">
+      <c r="P42" s="66">
         <v>3.599712023038157E-3</v>
       </c>
-      <c r="Q42" s="113" t="s">
+      <c r="Q42" s="78" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="43" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M43" s="112">
+      <c r="M43" s="77">
         <v>44</v>
       </c>
-      <c r="N43" s="105" t="s">
+      <c r="N43" s="70" t="s">
         <v>410</v>
       </c>
-      <c r="O43" s="100" t="s">
+      <c r="O43" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="P43" s="101">
+      <c r="P43" s="66">
         <v>3.599712023038157E-3</v>
       </c>
-      <c r="Q43" s="113" t="s">
+      <c r="Q43" s="78" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="44" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M44" s="112">
+      <c r="M44" s="77">
         <v>45</v>
       </c>
-      <c r="N44" s="105" t="s">
+      <c r="N44" s="70" t="s">
         <v>411</v>
       </c>
-      <c r="O44" s="106" t="s">
+      <c r="O44" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P44" s="95">
+      <c r="P44" s="60">
         <v>1</v>
       </c>
-      <c r="Q44" s="92" t="s">
+      <c r="Q44" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="45" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M45" s="112">
+      <c r="M45" s="77">
         <v>46</v>
       </c>
-      <c r="N45" s="105" t="s">
+      <c r="N45" s="70" t="s">
         <v>412</v>
       </c>
-      <c r="O45" s="106" t="s">
+      <c r="O45" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P45" s="95">
+      <c r="P45" s="60">
         <v>1</v>
       </c>
-      <c r="Q45" s="92" t="s">
+      <c r="Q45" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="46" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M46" s="112">
+      <c r="M46" s="77">
         <v>47</v>
       </c>
-      <c r="N46" s="105" t="s">
+      <c r="N46" s="70" t="s">
         <v>413</v>
       </c>
-      <c r="O46" s="106" t="s">
+      <c r="O46" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P46" s="95">
+      <c r="P46" s="60">
         <v>1</v>
       </c>
-      <c r="Q46" s="92" t="s">
+      <c r="Q46" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="47" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M47" s="112">
+      <c r="M47" s="77">
         <v>48</v>
       </c>
-      <c r="N47" s="105" t="s">
+      <c r="N47" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="O47" s="106" t="s">
+      <c r="O47" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P47" s="95">
+      <c r="P47" s="60">
         <v>1</v>
       </c>
-      <c r="Q47" s="92" t="s">
+      <c r="Q47" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="48" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M48" s="112">
+      <c r="M48" s="77">
         <v>49</v>
       </c>
-      <c r="N48" s="105" t="s">
+      <c r="N48" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="O48" s="106" t="s">
+      <c r="O48" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P48" s="95">
+      <c r="P48" s="60">
         <v>1</v>
       </c>
-      <c r="Q48" s="92" t="s">
+      <c r="Q48" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="49" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M49" s="112">
+      <c r="M49" s="77">
         <v>50</v>
       </c>
-      <c r="N49" s="105" t="s">
+      <c r="N49" s="70" t="s">
         <v>416</v>
       </c>
-      <c r="O49" s="106" t="s">
+      <c r="O49" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P49" s="95">
+      <c r="P49" s="60">
         <v>1</v>
       </c>
-      <c r="Q49" s="92" t="s">
+      <c r="Q49" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="50" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M50" s="112">
+      <c r="M50" s="77">
         <v>51</v>
       </c>
-      <c r="N50" s="105" t="s">
+      <c r="N50" s="70" t="s">
         <v>417</v>
       </c>
-      <c r="O50" s="106" t="s">
+      <c r="O50" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P50" s="95">
+      <c r="P50" s="60">
         <v>1</v>
       </c>
-      <c r="Q50" s="92" t="s">
+      <c r="Q50" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="51" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M51" s="112">
+      <c r="M51" s="77">
         <v>52</v>
       </c>
-      <c r="N51" s="105" t="s">
+      <c r="N51" s="70" t="s">
         <v>418</v>
       </c>
-      <c r="O51" s="106" t="s">
+      <c r="O51" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P51" s="95">
+      <c r="P51" s="60">
         <v>1</v>
       </c>
-      <c r="Q51" s="92" t="s">
+      <c r="Q51" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="52" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M52" s="112">
+      <c r="M52" s="77">
         <v>53</v>
       </c>
-      <c r="N52" s="103" t="s">
+      <c r="N52" s="68" t="s">
         <v>419</v>
       </c>
-      <c r="O52" s="106" t="s">
+      <c r="O52" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P52" s="95">
+      <c r="P52" s="60">
         <v>1</v>
       </c>
-      <c r="Q52" s="92" t="s">
+      <c r="Q52" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="53" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M53" s="112">
+      <c r="M53" s="77">
         <v>54</v>
       </c>
-      <c r="N53" s="105" t="s">
+      <c r="N53" s="70" t="s">
         <v>420</v>
       </c>
-      <c r="O53" s="106" t="s">
+      <c r="O53" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P53" s="95">
+      <c r="P53" s="60">
         <v>1</v>
       </c>
-      <c r="Q53" s="92" t="s">
+      <c r="Q53" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="54" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M54" s="112">
+      <c r="M54" s="77">
         <v>55</v>
       </c>
-      <c r="N54" s="105" t="s">
+      <c r="N54" s="70" t="s">
         <v>421</v>
       </c>
-      <c r="O54" s="106" t="s">
+      <c r="O54" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P54" s="95">
+      <c r="P54" s="60">
         <v>1</v>
       </c>
-      <c r="Q54" s="92" t="s">
+      <c r="Q54" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="55" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M55" s="112">
+      <c r="M55" s="77">
         <v>56</v>
       </c>
-      <c r="N55" s="105" t="s">
+      <c r="N55" s="70" t="s">
         <v>422</v>
       </c>
-      <c r="O55" s="106" t="s">
+      <c r="O55" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P55" s="95">
+      <c r="P55" s="60">
         <v>1</v>
       </c>
-      <c r="Q55" s="92" t="s">
+      <c r="Q55" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="56" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M56" s="112">
+      <c r="M56" s="77">
         <v>57</v>
       </c>
-      <c r="N56" s="103" t="s">
+      <c r="N56" s="68" t="s">
         <v>423</v>
       </c>
-      <c r="O56" s="106" t="s">
+      <c r="O56" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P56" s="95">
+      <c r="P56" s="60">
         <v>1</v>
       </c>
-      <c r="Q56" s="92" t="s">
+      <c r="Q56" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="57" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M57" s="112">
+      <c r="M57" s="77">
         <v>59</v>
       </c>
-      <c r="N57" s="105" t="s">
+      <c r="N57" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="O57" s="106" t="s">
+      <c r="O57" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="P57" s="95">
+      <c r="P57" s="60">
         <v>1</v>
       </c>
-      <c r="Q57" s="92" t="s">
+      <c r="Q57" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="58" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M58" s="112">
+      <c r="M58" s="77">
         <v>61</v>
       </c>
-      <c r="N58" s="98" t="s">
+      <c r="N58" s="63" t="s">
         <v>425</v>
       </c>
-      <c r="O58" s="99" t="s">
+      <c r="O58" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="P58" s="95">
+      <c r="P58" s="60">
         <v>1</v>
       </c>
-      <c r="Q58" s="93" t="s">
+      <c r="Q58" s="58" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="59" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M59" s="112">
+      <c r="M59" s="77">
         <v>63</v>
       </c>
-      <c r="N59" s="103" t="s">
+      <c r="N59" s="68" t="s">
         <v>427</v>
       </c>
-      <c r="O59" s="99" t="s">
+      <c r="O59" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="P59" s="95">
+      <c r="P59" s="60">
         <v>1</v>
       </c>
-      <c r="Q59" s="93" t="s">
+      <c r="Q59" s="58" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="60" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M60" s="112">
+      <c r="M60" s="77">
         <v>64</v>
       </c>
-      <c r="N60" s="103" t="s">
+      <c r="N60" s="68" t="s">
         <v>428</v>
       </c>
-      <c r="O60" s="99" t="s">
+      <c r="O60" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="P60" s="95">
+      <c r="P60" s="60">
         <v>1</v>
       </c>
-      <c r="Q60" s="93" t="s">
+      <c r="Q60" s="58" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="61" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M61" s="112">
+      <c r="M61" s="77">
         <v>65</v>
       </c>
-      <c r="N61" s="103" t="s">
+      <c r="N61" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="O61" s="99" t="s">
+      <c r="O61" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="P61" s="95">
+      <c r="P61" s="60">
         <v>1</v>
       </c>
-      <c r="Q61" s="93" t="s">
+      <c r="Q61" s="58" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="62" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M62" s="112">
+      <c r="M62" s="77">
         <v>66</v>
       </c>
-      <c r="N62" s="103" t="s">
+      <c r="N62" s="68" t="s">
         <v>430</v>
       </c>
-      <c r="O62" s="99" t="s">
+      <c r="O62" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="P62" s="95">
+      <c r="P62" s="60">
         <v>1</v>
       </c>
-      <c r="Q62" s="93" t="s">
+      <c r="Q62" s="58" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="63" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M63" s="112">
+      <c r="M63" s="77">
         <v>67</v>
       </c>
-      <c r="N63" s="105" t="s">
+      <c r="N63" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="O63" s="99" t="s">
+      <c r="O63" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="P63" s="95">
+      <c r="P63" s="60">
         <v>1</v>
       </c>
-      <c r="Q63" s="93" t="s">
+      <c r="Q63" s="58" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="64" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M64" s="112">
+      <c r="M64" s="77">
         <v>68</v>
       </c>
-      <c r="N64" s="105" t="s">
+      <c r="N64" s="70" t="s">
         <v>432</v>
       </c>
-      <c r="O64" s="99" t="s">
+      <c r="O64" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="P64" s="95">
+      <c r="P64" s="60">
         <v>1</v>
       </c>
-      <c r="Q64" s="93" t="s">
+      <c r="Q64" s="58" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="65" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M65" s="112">
+      <c r="M65" s="77">
         <v>69</v>
       </c>
-      <c r="N65" s="103" t="s">
+      <c r="N65" s="68" t="s">
         <v>433</v>
       </c>
-      <c r="O65" s="99" t="s">
+      <c r="O65" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="P65" s="95">
+      <c r="P65" s="60">
         <v>1</v>
       </c>
-      <c r="Q65" s="93" t="s">
+      <c r="Q65" s="58" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="66" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M66" s="112">
+      <c r="M66" s="77">
         <v>167</v>
       </c>
-      <c r="N66" s="107" t="s">
+      <c r="N66" s="72" t="s">
         <v>434</v>
       </c>
-      <c r="O66" s="108"/>
-      <c r="P66" s="108"/>
-      <c r="Q66" s="117"/>
+      <c r="O66" s="73"/>
+      <c r="P66" s="73"/>
+      <c r="Q66" s="82"/>
     </row>
     <row r="67" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M67" s="112">
+      <c r="M67" s="77">
         <v>168</v>
       </c>
-      <c r="N67" s="107" t="s">
+      <c r="N67" s="72" t="s">
         <v>435</v>
       </c>
-      <c r="O67" s="108"/>
-      <c r="P67" s="108"/>
-      <c r="Q67" s="117"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="73"/>
+      <c r="Q67" s="82"/>
     </row>
     <row r="68" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M68" s="112">
+      <c r="M68" s="77">
         <v>169</v>
       </c>
-      <c r="N68" s="107" t="s">
+      <c r="N68" s="72" t="s">
         <v>436</v>
       </c>
-      <c r="O68" s="108"/>
-      <c r="P68" s="108"/>
-      <c r="Q68" s="117"/>
+      <c r="O68" s="73"/>
+      <c r="P68" s="73"/>
+      <c r="Q68" s="82"/>
     </row>
     <row r="69" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M69" s="112">
+      <c r="M69" s="77">
         <v>170</v>
       </c>
-      <c r="N69" s="107" t="s">
+      <c r="N69" s="72" t="s">
         <v>437</v>
       </c>
-      <c r="O69" s="108"/>
-      <c r="P69" s="108"/>
-      <c r="Q69" s="117"/>
+      <c r="O69" s="73"/>
+      <c r="P69" s="73"/>
+      <c r="Q69" s="82"/>
     </row>
     <row r="70" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M70" s="112">
+      <c r="M70" s="77">
         <v>171</v>
       </c>
-      <c r="N70" s="107" t="s">
+      <c r="N70" s="72" t="s">
         <v>438</v>
       </c>
-      <c r="O70" s="108"/>
-      <c r="P70" s="108"/>
-      <c r="Q70" s="117"/>
+      <c r="O70" s="73"/>
+      <c r="P70" s="73"/>
+      <c r="Q70" s="82"/>
     </row>
     <row r="71" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M71" s="112">
+      <c r="M71" s="77">
         <v>172</v>
       </c>
-      <c r="N71" s="107" t="s">
+      <c r="N71" s="72" t="s">
         <v>439</v>
       </c>
-      <c r="O71" s="108"/>
-      <c r="P71" s="108"/>
-      <c r="Q71" s="117"/>
+      <c r="O71" s="73"/>
+      <c r="P71" s="73"/>
+      <c r="Q71" s="82"/>
     </row>
     <row r="72" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M72" s="112">
+      <c r="M72" s="77">
         <v>173</v>
       </c>
-      <c r="N72" s="107" t="s">
+      <c r="N72" s="72" t="s">
         <v>440</v>
       </c>
-      <c r="O72" s="108"/>
-      <c r="P72" s="108"/>
-      <c r="Q72" s="117"/>
+      <c r="O72" s="73"/>
+      <c r="P72" s="73"/>
+      <c r="Q72" s="82"/>
     </row>
     <row r="73" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M73" s="118">
+      <c r="M73" s="83">
         <v>179</v>
       </c>
-      <c r="N73" s="119" t="s">
+      <c r="N73" s="84" t="s">
         <v>441</v>
       </c>
-      <c r="O73" s="120"/>
-      <c r="P73" s="120"/>
-      <c r="Q73" s="121"/>
+      <c r="O73" s="85"/>
+      <c r="P73" s="85"/>
+      <c r="Q73" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7361,10 +7625,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB71"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7372,7 +7636,7 @@
     <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
@@ -7394,8 +7658,8 @@
     <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>343</v>
       </c>
@@ -7409,42 +7673,25 @@
         <v>304</v>
       </c>
       <c r="E2" s="49"/>
-      <c r="F2" s="57">
+      <c r="F2" s="95">
         <v>1</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="98" t="s">
         <v>345</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="65"/>
-      <c r="R2" s="57">
-        <v>4</v>
-      </c>
-      <c r="S2" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="T2" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="65"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="100"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>308</v>
       </c>
@@ -7457,30 +7704,19 @@
       <c r="D3" s="51">
         <v>2000</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="68"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="96"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
@@ -7493,30 +7729,19 @@
       <c r="D4" s="52">
         <v>2001</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="71"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="71"/>
-    </row>
-    <row r="5" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="97"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
+    </row>
+    <row r="5" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>11</v>
       </c>
@@ -7559,38 +7784,8 @@
       <c r="P5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>309</v>
       </c>
@@ -7606,22 +7801,19 @@
       <c r="G6" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="98" t="s">
         <v>344</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="65"/>
-      <c r="S6" s="51">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="100"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>310</v>
       </c>
@@ -7634,20 +7826,17 @@
       <c r="G7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="68"/>
-      <c r="S7" s="52">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="101"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="103"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>311</v>
       </c>
@@ -7660,20 +7849,17 @@
       <c r="G8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="68"/>
-      <c r="S8" s="52">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="103"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>312</v>
       </c>
@@ -7686,20 +7872,17 @@
       <c r="G9" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="68"/>
-      <c r="S9" s="53" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="101"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="103"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>313</v>
       </c>
@@ -7712,17 +7895,17 @@
       <c r="G10" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="68"/>
-    </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="101"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="103"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>314</v>
       </c>
@@ -7732,17 +7915,17 @@
       <c r="G11" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="71"/>
-    </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="106"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>315</v>
       </c>
@@ -7753,7 +7936,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>316</v>
       </c>
@@ -7764,7 +7947,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>317</v>
       </c>
@@ -7775,7 +7958,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>318</v>
       </c>
@@ -7786,7 +7969,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>319</v>
       </c>
@@ -7923,49 +8106,49 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F33" s="57">
+      <c r="F33" s="95">
         <v>2</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="63" t="s">
+      <c r="H33" s="98" t="s">
         <v>346</v>
       </c>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="65"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="100"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F34" s="58"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="68"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="103"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="59"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="71"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="106"/>
     </row>
     <row r="36" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G36" s="4" t="s">
@@ -8004,87 +8187,87 @@
       <c r="G37" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="H37" s="63" t="s">
+      <c r="H37" s="98" t="s">
         <v>347</v>
       </c>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="65"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="100"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G38" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="H38" s="66"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="68"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="103"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G39" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="H39" s="66"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="68"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="103"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G40" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="H40" s="66"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="68"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="103"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G41" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="H41" s="66"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="68"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="102"/>
+      <c r="M41" s="102"/>
+      <c r="N41" s="102"/>
+      <c r="O41" s="102"/>
+      <c r="P41" s="103"/>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G42" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="H42" s="69"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="71"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="106"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="39" t="s">
@@ -8099,51 +8282,51 @@
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="57">
+      <c r="F47" s="95">
         <v>3</v>
       </c>
-      <c r="G47" s="60" t="s">
+      <c r="G47" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="63" t="s">
+      <c r="H47" s="98" t="s">
         <v>348</v>
       </c>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="65"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="100"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F48" s="58"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="68"/>
-    </row>
-    <row r="49" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="59"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="71"/>
-    </row>
-    <row r="50" spans="6:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="96"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="102"/>
+      <c r="O48" s="102"/>
+      <c r="P48" s="103"/>
+    </row>
+    <row r="49" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="97"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="105"/>
+      <c r="P49" s="106"/>
+    </row>
+    <row r="50" spans="5:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G50" s="4" t="s">
         <v>0</v>
       </c>
@@ -8175,184 +8358,342 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E51" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G51" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="H51" s="63" t="s">
+      <c r="H51" s="98" t="s">
         <v>349</v>
       </c>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="65"/>
-    </row>
-    <row r="52" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I51" s="99"/>
+      <c r="J51" s="99"/>
+      <c r="K51" s="99"/>
+      <c r="L51" s="99"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="99"/>
+      <c r="O51" s="99"/>
+      <c r="P51" s="100"/>
+    </row>
+    <row r="52" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G52" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="H52" s="66"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="67"/>
-      <c r="P52" s="68"/>
-    </row>
-    <row r="53" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="H52" s="101"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="102"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="102"/>
+      <c r="O52" s="102"/>
+      <c r="P52" s="103"/>
+    </row>
+    <row r="53" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E53" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G53" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="H53" s="66"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="68"/>
-    </row>
-    <row r="54" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="H53" s="101"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="102"/>
+      <c r="O53" s="102"/>
+      <c r="P53" s="103"/>
+    </row>
+    <row r="54" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G54" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="H54" s="66"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="68"/>
-    </row>
-    <row r="55" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="H54" s="101"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="102"/>
+      <c r="L54" s="102"/>
+      <c r="M54" s="102"/>
+      <c r="N54" s="102"/>
+      <c r="O54" s="102"/>
+      <c r="P54" s="103"/>
+    </row>
+    <row r="55" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G55" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="H55" s="66"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="67"/>
-      <c r="P55" s="68"/>
-    </row>
-    <row r="56" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="101"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="102"/>
+      <c r="L55" s="102"/>
+      <c r="M55" s="102"/>
+      <c r="N55" s="102"/>
+      <c r="O55" s="102"/>
+      <c r="P55" s="103"/>
+    </row>
+    <row r="56" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G56" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="H56" s="69"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="70"/>
-      <c r="P56" s="71"/>
-    </row>
-    <row r="57" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="H56" s="104"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="105"/>
+      <c r="N56" s="105"/>
+      <c r="O56" s="105"/>
+      <c r="P56" s="106"/>
+    </row>
+    <row r="57" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G57" s="44" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G58" s="44" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G59" s="44" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E60" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G60" s="44" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="61" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E61" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G61" s="44" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E62" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G62" s="45" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E63" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G63" s="45" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E64" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G64" s="44" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E65" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G65" s="44" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E66" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G66" s="44" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G67" s="45" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E68" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G68" s="44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E69" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="G69" s="44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G70" s="46" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G71" s="47" t="s">
         <v>342</v>
       </c>
     </row>
+    <row r="72" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F73" s="95">
+        <v>4</v>
+      </c>
+      <c r="G73" s="92" t="s">
+        <v>350</v>
+      </c>
+      <c r="H73" s="98" t="s">
+        <v>352</v>
+      </c>
+      <c r="I73" s="99"/>
+      <c r="J73" s="99"/>
+      <c r="K73" s="99"/>
+      <c r="L73" s="99"/>
+      <c r="M73" s="99"/>
+      <c r="N73" s="99"/>
+      <c r="O73" s="99"/>
+      <c r="P73" s="100"/>
+    </row>
+    <row r="74" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F74" s="96"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="101"/>
+      <c r="I74" s="102"/>
+      <c r="J74" s="102"/>
+      <c r="K74" s="102"/>
+      <c r="L74" s="102"/>
+      <c r="M74" s="102"/>
+      <c r="N74" s="102"/>
+      <c r="O74" s="102"/>
+      <c r="P74" s="103"/>
+    </row>
+    <row r="75" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="97"/>
+      <c r="G75" s="94"/>
+      <c r="H75" s="104"/>
+      <c r="I75" s="105"/>
+      <c r="J75" s="105"/>
+      <c r="K75" s="105"/>
+      <c r="L75" s="105"/>
+      <c r="M75" s="105"/>
+      <c r="N75" s="105"/>
+      <c r="O75" s="105"/>
+      <c r="P75" s="106"/>
+    </row>
+    <row r="76" spans="5:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G77" s="51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="78" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G78" s="52">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="79" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G79" s="52">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="80" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="53" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H51:P56"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="H6:P11"/>
-    <mergeCell ref="H2:P4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:P35"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:AB4"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="H73:P75"/>
     <mergeCell ref="H37:P42"/>
     <mergeCell ref="F47:F49"/>
     <mergeCell ref="G47:G49"/>
     <mergeCell ref="H47:P49"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="F33:F35"/>
+    <mergeCell ref="H51:P56"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="H6:P11"/>
+    <mergeCell ref="H2:P4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:P35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/models/data_slicing.xlsx
+++ b/src/models/data_slicing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\enerbal\src\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_WORK\AEA\Projekte\bilanzen_monitor\enerbal\src\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67F9859-9BEC-40EE-BED6-2D252AFAC0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="3"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energiebilanzen" sheetId="1" r:id="rId1"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="S6" authorId="0" shapeId="0">
+    <comment ref="S6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="0" shapeId="0">
+    <comment ref="T6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U28" authorId="0" shapeId="0">
+    <comment ref="U28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U41" authorId="0" shapeId="0">
+    <comment ref="U41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U46" authorId="0" shapeId="0">
+    <comment ref="U46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0" shapeId="0">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U51" authorId="0" shapeId="0">
+    <comment ref="U51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U54" authorId="0" shapeId="0">
+    <comment ref="U54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -224,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0" shapeId="0">
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1843,22 +1844,22 @@
     </r>
   </si>
   <si>
-    <t>per_years</t>
-  </si>
-  <si>
     <t>ARG</t>
   </si>
   <si>
-    <t xml:space="preserve">per_energy_sources </t>
-  </si>
-  <si>
-    <t xml:space="preserve">per_aggregates </t>
+    <t>per_agg_and_source_for_all_years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per_sources_for_each_agg_and_year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">per_aggs_for_each_source_and_year </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€]\ * #,##0.00_-;\-[$€]\ * #,##0.00_-;_-[$€]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -2158,7 +2159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2281,6 +2282,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="39">
     <border>
@@ -2813,7 +2826,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3034,6 +3047,48 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3043,15 +3098,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3079,6 +3125,33 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3103,83 +3176,96 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="20 % - Akzent3" xfId="5" builtinId="38"/>
-    <cellStyle name="Berechnung" xfId="3" builtinId="22"/>
-    <cellStyle name="cells" xfId="14"/>
-    <cellStyle name="column field" xfId="13"/>
-    <cellStyle name="Eingabe" xfId="2" builtinId="20"/>
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="heading" xfId="12"/>
-    <cellStyle name="Komma 2" xfId="8"/>
-    <cellStyle name="Komma 2 2" xfId="10"/>
-    <cellStyle name="Prozent 2" xfId="9"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="7"/>
-    <cellStyle name="Standard 2 2" xfId="11"/>
-    <cellStyle name="Standard 3" xfId="6"/>
-    <cellStyle name="Zelle überprüfen" xfId="4" builtinId="23"/>
+    <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="cells" xfId="14" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="column field" xfId="13" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="heading" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
+    <cellStyle name="Komma 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Komma 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Prozent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Standard 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Standard 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Standard 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3211,7 +3297,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Geschweifte Klammer rechts 1"/>
+        <xdr:cNvPr id="2" name="Geschweifte Klammer rechts 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3264,7 +3356,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Textfeld 2"/>
+        <xdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3584,80 +3682,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="11.42578125" style="87"/>
-    <col min="18" max="18" width="58.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.44140625" style="87"/>
+    <col min="18" max="18" width="58.109375" customWidth="1"/>
     <col min="19" max="19" width="58" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.140625" customWidth="1"/>
-    <col min="21" max="21" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.109375" customWidth="1"/>
+    <col min="21" max="21" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="127" t="s">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="92" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" s="94" t="s">
         <v>454</v>
       </c>
-      <c r="C2" s="129" t="s">
-        <v>453</v>
-      </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="131"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="128"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="134"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95">
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="93"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="103">
         <v>1</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="106" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="109" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="100"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
       <c r="R4" s="33" t="s">
         <v>305</v>
       </c>
@@ -3668,23 +3766,23 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="103"/>
-      <c r="R5" s="115" t="s">
+    <row r="5" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="104"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="114"/>
+      <c r="R5" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="116"/>
-      <c r="T5" s="117"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="102"/>
       <c r="U5" s="20" t="s">
         <v>246</v>
       </c>
@@ -3695,18 +3793,18 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="97"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="106"/>
+    <row r="6" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="105"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
       <c r="R6" s="32" t="s">
         <v>26</v>
       </c>
@@ -3723,7 +3821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="50" t="s">
         <v>304</v>
       </c>
@@ -3770,7 +3868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="51">
         <v>2000</v>
       </c>
@@ -3801,7 +3899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="52">
         <v>2001</v>
       </c>
@@ -3830,7 +3928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="52">
         <v>2002</v>
       </c>
@@ -3859,7 +3957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="53" t="s">
         <v>351</v>
       </c>
@@ -3888,7 +3986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="R12" s="9" t="s">
         <v>32</v>
       </c>
@@ -3902,7 +4000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="R13" s="10" t="s">
         <v>33</v>
       </c>
@@ -3916,7 +4014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="R14" s="10" t="s">
         <v>34</v>
       </c>
@@ -3930,21 +4028,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="127" t="s">
-        <v>454</v>
-      </c>
-      <c r="C15" s="129" t="s">
+    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="92" t="s">
+        <v>453</v>
+      </c>
+      <c r="C15" s="94" t="s">
         <v>455</v>
       </c>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="131"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
       <c r="R15" s="10" t="s">
         <v>35</v>
       </c>
@@ -3958,17 +4056,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="128"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="134"/>
+    <row r="16" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="93"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
       <c r="R16" s="10" t="s">
         <v>36</v>
       </c>
@@ -3982,24 +4080,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="95">
+    <row r="17" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="103">
         <v>2</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="109" t="s">
         <v>355</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="100"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="111"/>
       <c r="R17" s="11" t="s">
         <v>37</v>
       </c>
@@ -4013,18 +4111,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="96"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="103"/>
+    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="104"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="114"/>
       <c r="R18" s="11" t="s">
         <v>38</v>
       </c>
@@ -4038,18 +4136,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="97"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="106"/>
+    <row r="19" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="105"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="117"/>
       <c r="R19" s="10" t="s">
         <v>39</v>
       </c>
@@ -4063,7 +4161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="50" t="s">
         <v>304</v>
       </c>
@@ -4107,21 +4205,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="109" t="s">
         <v>356</v>
       </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="108"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="128"/>
       <c r="R21" s="11" t="s">
         <v>41</v>
       </c>
@@ -4135,19 +4233,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="111"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="131"/>
       <c r="R22" s="10" t="s">
         <v>42</v>
       </c>
@@ -4161,19 +4259,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="111"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="131"/>
       <c r="R23" s="11" t="s">
         <v>43</v>
       </c>
@@ -4187,19 +4285,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="111"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="131"/>
       <c r="R24" s="11" t="s">
         <v>44</v>
       </c>
@@ -4213,19 +4311,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="111"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="131"/>
       <c r="R25" s="10" t="s">
         <v>45</v>
       </c>
@@ -4239,19 +4337,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="131"/>
       <c r="R26" s="8" t="s">
         <v>46</v>
       </c>
@@ -4265,19 +4363,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="111"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
       <c r="R27" s="9" t="s">
         <v>47</v>
       </c>
@@ -4291,19 +4389,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="109"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="131"/>
       <c r="R28" s="10" t="s">
         <v>48</v>
       </c>
@@ -4317,19 +4415,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="114"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="134"/>
       <c r="R29" s="10" t="s">
         <v>49</v>
       </c>
@@ -4343,7 +4441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R30" s="10" t="s">
         <v>50</v>
       </c>
@@ -4354,21 +4452,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="B31" s="127" t="s">
-        <v>454</v>
-      </c>
-      <c r="C31" s="129" t="s">
+    <row r="31" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B31" s="92" t="s">
+        <v>453</v>
+      </c>
+      <c r="C31" s="94" t="s">
         <v>456</v>
       </c>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="131"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="96"/>
       <c r="R31" s="10" t="s">
         <v>51</v>
       </c>
@@ -4379,17 +4477,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="128"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="134"/>
+    <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="93"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="99"/>
       <c r="R32" s="11" t="s">
         <v>52</v>
       </c>
@@ -4400,24 +4498,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95">
+    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="103">
         <v>3.1</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="98" t="s">
+      <c r="C33" s="109" t="s">
         <v>358</v>
       </c>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="100"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="111"/>
       <c r="R33" s="12" t="s">
         <v>53</v>
       </c>
@@ -4428,18 +4526,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="103"/>
+    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="104"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="114"/>
       <c r="R34" s="12" t="s">
         <v>54</v>
       </c>
@@ -4450,18 +4548,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="97"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="106"/>
+    <row r="35" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="105"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="117"/>
       <c r="R35" s="12" t="s">
         <v>55</v>
       </c>
@@ -4472,7 +4570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="50" t="s">
         <v>304</v>
       </c>
@@ -4513,21 +4611,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C37" s="109" t="s">
         <v>357</v>
       </c>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="100"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="111"/>
       <c r="R37" s="12" t="s">
         <v>57</v>
       </c>
@@ -4538,19 +4636,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="103"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="114"/>
       <c r="R38" s="13" t="s">
         <v>58</v>
       </c>
@@ -4561,19 +4659,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="103"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="114"/>
       <c r="R39" s="13" t="s">
         <v>59</v>
       </c>
@@ -4584,19 +4682,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="101"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="103"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="114"/>
       <c r="R40" s="12" t="s">
         <v>60</v>
       </c>
@@ -4607,19 +4705,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="101"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="103"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="114"/>
       <c r="R41" s="13" t="s">
         <v>61</v>
       </c>
@@ -4630,19 +4728,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="106"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="117"/>
       <c r="R42" s="13" t="s">
         <v>62</v>
       </c>
@@ -4653,7 +4751,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R43" s="12" t="s">
         <v>63</v>
       </c>
@@ -4664,24 +4762,24 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="95">
+    <row r="44" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="135">
         <v>3.2</v>
       </c>
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="98" t="s">
+      <c r="C44" s="137" t="s">
         <v>359</v>
       </c>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="100"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="139"/>
       <c r="R44" s="13" t="s">
         <v>64</v>
       </c>
@@ -4692,18 +4790,18 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="96"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="102"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="103"/>
+    <row r="45" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="140"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="142"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="144"/>
       <c r="R45" s="13" t="s">
         <v>65</v>
       </c>
@@ -4714,18 +4812,18 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="97"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="106"/>
+    <row r="46" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="145"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="148"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="149"/>
       <c r="R46" s="13" t="s">
         <v>66</v>
       </c>
@@ -4736,35 +4834,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="50" t="s">
+    <row r="47" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="150"/>
+      <c r="B47" s="151" t="s">
         <v>304</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="154" t="s">
         <v>9</v>
       </c>
       <c r="R47" s="13" t="s">
@@ -4777,21 +4876,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="26" t="s">
+    <row r="48" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="150"/>
+      <c r="B48" s="155" t="s">
         <v>216</v>
       </c>
-      <c r="C48" s="98" t="s">
+      <c r="C48" s="137" t="s">
         <v>357</v>
       </c>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="100"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="138"/>
+      <c r="F48" s="138"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="138"/>
+      <c r="J48" s="138"/>
+      <c r="K48" s="139"/>
       <c r="R48" s="13" t="s">
         <v>68</v>
       </c>
@@ -4802,19 +4902,20 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="27" t="s">
+    <row r="49" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="150"/>
+      <c r="B49" s="156" t="s">
         <v>217</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="102"/>
-      <c r="J49" s="102"/>
-      <c r="K49" s="103"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="143"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="143"/>
+      <c r="G49" s="143"/>
+      <c r="H49" s="143"/>
+      <c r="I49" s="143"/>
+      <c r="J49" s="143"/>
+      <c r="K49" s="144"/>
       <c r="R49" s="13" t="s">
         <v>69</v>
       </c>
@@ -4825,19 +4926,20 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="27" t="s">
+    <row r="50" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="150"/>
+      <c r="B50" s="156" t="s">
         <v>218</v>
       </c>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="103"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="143"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="143"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="143"/>
+      <c r="J50" s="143"/>
+      <c r="K50" s="144"/>
       <c r="R50" s="13" t="s">
         <v>70</v>
       </c>
@@ -4848,19 +4950,20 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="27" t="s">
+    <row r="51" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="150"/>
+      <c r="B51" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="102"/>
-      <c r="I51" s="102"/>
-      <c r="J51" s="102"/>
-      <c r="K51" s="103"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="143"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="143"/>
+      <c r="I51" s="143"/>
+      <c r="J51" s="143"/>
+      <c r="K51" s="144"/>
       <c r="R51" s="13" t="s">
         <v>71</v>
       </c>
@@ -4871,19 +4974,20 @@
         <v>291</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B52" s="27" t="s">
+    <row r="52" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="150"/>
+      <c r="B52" s="156" t="s">
         <v>220</v>
       </c>
-      <c r="C52" s="101"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="103"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="143"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="143"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="143"/>
+      <c r="I52" s="143"/>
+      <c r="J52" s="143"/>
+      <c r="K52" s="144"/>
       <c r="R52" s="13" t="s">
         <v>72</v>
       </c>
@@ -4894,19 +4998,20 @@
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="27" t="s">
+    <row r="53" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="150"/>
+      <c r="B53" s="156" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="104"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="106"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="148"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="148"/>
+      <c r="I53" s="148"/>
+      <c r="J53" s="148"/>
+      <c r="K53" s="149"/>
       <c r="R53" s="13" t="s">
         <v>73</v>
       </c>
@@ -4917,7 +5022,18 @@
         <v>302</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="150"/>
+      <c r="B54" s="150"/>
+      <c r="C54" s="150"/>
+      <c r="D54" s="150"/>
+      <c r="E54" s="150"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="150"/>
+      <c r="J54" s="150"/>
+      <c r="K54" s="150"/>
       <c r="R54" s="12" t="s">
         <v>74</v>
       </c>
@@ -4928,24 +5044,24 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="95">
+    <row r="55" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A55" s="135">
         <v>3.3</v>
       </c>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="98" t="s">
+      <c r="C55" s="137" t="s">
         <v>360</v>
       </c>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
-      <c r="K55" s="100"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="138"/>
+      <c r="F55" s="138"/>
+      <c r="G55" s="138"/>
+      <c r="H55" s="138"/>
+      <c r="I55" s="138"/>
+      <c r="J55" s="138"/>
+      <c r="K55" s="139"/>
       <c r="R55" s="13" t="s">
         <v>75</v>
       </c>
@@ -4956,18 +5072,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="96"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="102"/>
-      <c r="I56" s="102"/>
-      <c r="J56" s="102"/>
-      <c r="K56" s="103"/>
+    <row r="56" spans="1:22" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A56" s="140"/>
+      <c r="B56" s="141"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
+      <c r="K56" s="144"/>
       <c r="R56" s="13" t="s">
         <v>76</v>
       </c>
@@ -4978,18 +5094,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="97"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="105"/>
-      <c r="K57" s="106"/>
+    <row r="57" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="145"/>
+      <c r="B57" s="146"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="148"/>
+      <c r="F57" s="148"/>
+      <c r="G57" s="148"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="148"/>
+      <c r="J57" s="148"/>
+      <c r="K57" s="149"/>
       <c r="R57" s="13" t="s">
         <v>77</v>
       </c>
@@ -5000,35 +5116,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="50" t="s">
+    <row r="58" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="150"/>
+      <c r="B58" s="151" t="s">
         <v>304</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I58" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="J58" s="6" t="s">
+      <c r="J58" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="K58" s="154" t="s">
         <v>9</v>
       </c>
       <c r="R58" s="12" t="s">
@@ -5041,21 +5158,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="29" t="s">
+    <row r="59" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="150"/>
+      <c r="B59" s="157" t="s">
         <v>240</v>
       </c>
-      <c r="C59" s="98" t="s">
+      <c r="C59" s="137" t="s">
         <v>357</v>
       </c>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="99"/>
-      <c r="J59" s="99"/>
-      <c r="K59" s="100"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="138"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="138"/>
+      <c r="J59" s="138"/>
+      <c r="K59" s="139"/>
       <c r="R59" s="13" t="s">
         <v>79</v>
       </c>
@@ -5066,19 +5184,20 @@
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30" t="s">
+    <row r="60" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="150"/>
+      <c r="B60" s="158" t="s">
         <v>241</v>
       </c>
-      <c r="C60" s="101"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="102"/>
-      <c r="I60" s="102"/>
-      <c r="J60" s="102"/>
-      <c r="K60" s="103"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="143"/>
+      <c r="G60" s="143"/>
+      <c r="H60" s="143"/>
+      <c r="I60" s="143"/>
+      <c r="J60" s="143"/>
+      <c r="K60" s="144"/>
       <c r="R60" s="13" t="s">
         <v>80</v>
       </c>
@@ -5089,19 +5208,20 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="30" t="s">
+    <row r="61" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="150"/>
+      <c r="B61" s="158" t="s">
         <v>242</v>
       </c>
-      <c r="C61" s="101"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="102"/>
-      <c r="I61" s="102"/>
-      <c r="J61" s="102"/>
-      <c r="K61" s="103"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="143"/>
+      <c r="H61" s="143"/>
+      <c r="I61" s="143"/>
+      <c r="J61" s="143"/>
+      <c r="K61" s="144"/>
       <c r="R61" s="13" t="s">
         <v>81</v>
       </c>
@@ -5112,19 +5232,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="30" t="s">
+    <row r="62" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="150"/>
+      <c r="B62" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="C62" s="101"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="102"/>
-      <c r="I62" s="102"/>
-      <c r="J62" s="102"/>
-      <c r="K62" s="103"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="143"/>
+      <c r="F62" s="143"/>
+      <c r="G62" s="143"/>
+      <c r="H62" s="143"/>
+      <c r="I62" s="143"/>
+      <c r="J62" s="143"/>
+      <c r="K62" s="144"/>
       <c r="R62" s="11" t="s">
         <v>82</v>
       </c>
@@ -5135,19 +5256,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="30" t="s">
+    <row r="63" spans="1:22" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="150"/>
+      <c r="B63" s="158" t="s">
         <v>244</v>
       </c>
-      <c r="C63" s="101"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
-      <c r="F63" s="102"/>
-      <c r="G63" s="102"/>
-      <c r="H63" s="102"/>
-      <c r="I63" s="102"/>
-      <c r="J63" s="102"/>
-      <c r="K63" s="103"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="143"/>
+      <c r="E63" s="143"/>
+      <c r="F63" s="143"/>
+      <c r="G63" s="143"/>
+      <c r="H63" s="143"/>
+      <c r="I63" s="143"/>
+      <c r="J63" s="143"/>
+      <c r="K63" s="144"/>
       <c r="R63" s="12" t="s">
         <v>83</v>
       </c>
@@ -5158,19 +5280,20 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="31" t="s">
+    <row r="64" spans="1:22" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="150"/>
+      <c r="B64" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="C64" s="104"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="105"/>
-      <c r="I64" s="105"/>
-      <c r="J64" s="105"/>
-      <c r="K64" s="106"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="148"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="148"/>
+      <c r="G64" s="148"/>
+      <c r="H64" s="148"/>
+      <c r="I64" s="148"/>
+      <c r="J64" s="148"/>
+      <c r="K64" s="149"/>
       <c r="R64" s="12" t="s">
         <v>84</v>
       </c>
@@ -5178,7 +5301,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R65" s="12" t="s">
         <v>85</v>
       </c>
@@ -5186,669 +5309,663 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R66" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R67" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R68" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R69" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R70" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="71" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R71" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R72" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R73" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R74" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R75" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R76" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R77" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R78" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R79" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="18:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="18:21" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R80" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R81" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R82" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R83" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R84" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R85" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R86" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R87" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R88" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R89" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R90" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R91" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R92" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R93" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R94" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R95" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R96" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R97" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R98" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R99" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R100" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R101" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R102" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R103" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R104" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R105" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R106" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R107" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R108" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R109" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R110" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R111" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R112" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="113" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R113" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R114" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="115" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R115" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="116" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R116" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="117" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R117" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="118" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="118" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R118" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="119" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R119" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="120" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="120" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R120" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="121" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R121" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="122" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="122" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R122" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="123" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R123" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="124" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="124" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R124" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="125" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R125" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="126" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R126" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="127" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="127" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R127" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="128" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R128" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="129" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="129" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R129" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="130" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="130" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R130" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="131" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="131" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R131" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="132" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R132" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="133" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R133" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R134" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="135" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="135" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R135" s="13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="136" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="136" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R136" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="137" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="137" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R137" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R138" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="139" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R139" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="140" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="140" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R140" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="141" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="141" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R141" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R142" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="143" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="143" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R143" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="144" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="144" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R144" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="145" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="145" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R145" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="146" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="146" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R146" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="147" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="147" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R147" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="148" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R148" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="149" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="149" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R149" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="150" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R150" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="151" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="151" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R151" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="152" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="152" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R152" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="153" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="153" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R153" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="154" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="154" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R154" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="155" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="155" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R155" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="156" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R156" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="157" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R157" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="158" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="158" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R158" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="159" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="159" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R159" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="160" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="160" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R160" s="13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="161" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="161" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R161" s="13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="162" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R162" s="13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="163" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R163" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="164" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R164" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="165" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R165" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="166" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R166" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="167" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R167" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="168" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R168" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="169" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R169" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="170" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R170" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="171" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R171" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="172" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="172" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R172" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="173" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="173" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R173" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="174" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="174" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R174" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="175" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="175" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R175" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="176" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="176" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R176" s="13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="177" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="177" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R177" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="178" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="178" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R178" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="179" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R179" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="180" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R180" s="13" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="181" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="181" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R181" s="13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="182" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="182" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R182" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="183" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="183" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R183" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="184" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="184" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R184" s="13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R185" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="186" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R186" s="13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="187" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="187" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R187" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="188" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="188" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R188" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="189" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="189" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R189" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="190" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="190" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R190" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="191" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="191" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R191" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="192" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="192" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R192" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="193" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="193" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R193" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="194" spans="18:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="194" spans="18:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="R194" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="195" spans="18:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="18:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R195" s="14" t="s">
         <v>215</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:K3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:K16"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:K32"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:K6"/>
-    <mergeCell ref="C8:K11"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="C48:K53"/>
+    <mergeCell ref="C55:K57"/>
+    <mergeCell ref="C59:K64"/>
     <mergeCell ref="C37:K42"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="B44:B46"/>
@@ -5860,11 +5977,17 @@
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:K35"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="C48:K53"/>
-    <mergeCell ref="C55:K57"/>
-    <mergeCell ref="C59:K64"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:K6"/>
+    <mergeCell ref="C8:K11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:K3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:K16"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5874,74 +5997,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26:K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="103">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="106" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="109" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
       <c r="M2" s="88" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="104"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="114"/>
       <c r="M3" s="89" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
       <c r="M4" s="90" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="87"/>
       <c r="B5" s="50" t="s">
         <v>304</v>
@@ -5977,7 +6100,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="87"/>
       <c r="B6" s="51">
         <v>2000</v>
@@ -5997,7 +6120,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="87"/>
       <c r="B7" s="52">
         <v>2001</v>
@@ -6015,7 +6138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="87"/>
       <c r="B8" s="52">
         <v>2002</v>
@@ -6033,7 +6156,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="87"/>
       <c r="B9" s="53" t="s">
         <v>351</v>
@@ -6051,7 +6174,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="87"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
@@ -6067,52 +6190,52 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="95">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="103">
         <v>2</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="109" t="s">
         <v>452</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="100"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="103"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="97"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="106"/>
-    </row>
-    <row r="14" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="111"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="104"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="105"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="117"/>
+    </row>
+    <row r="14" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="87"/>
       <c r="B14" s="50" t="s">
         <v>304</v>
@@ -6145,129 +6268,129 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="87"/>
       <c r="B15" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="109" t="s">
         <v>356</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="100"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="87"/>
       <c r="B16" s="90" t="s">
         <v>445</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="103"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="114"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="87"/>
       <c r="B17" s="90" t="s">
         <v>446</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="103"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="112"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="114"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="87"/>
       <c r="B18" s="90" t="s">
         <v>447</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="103"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="112"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="114"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="87"/>
       <c r="B19" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="103"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="87"/>
       <c r="B20" s="90" t="s">
         <v>448</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="103"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
       <c r="B21" s="90" t="s">
         <v>449</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="103"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="87"/>
       <c r="B22" s="91" t="s">
         <v>450</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="106"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="117"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="87"/>
     </row>
   </sheetData>
@@ -6286,64 +6409,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="103">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="106" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="109" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="104"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="114"/>
       <c r="M3" s="74" t="s">
         <v>361</v>
       </c>
@@ -6360,18 +6483,18 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
       <c r="M4" s="77">
         <v>5</v>
       </c>
@@ -6388,7 +6511,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="56"/>
       <c r="B5" s="50" t="s">
         <v>304</v>
@@ -6436,7 +6559,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="56"/>
       <c r="B6" s="51">
         <v>2000</v>
@@ -6468,7 +6591,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="56"/>
       <c r="B7" s="52">
         <v>2001</v>
@@ -6498,7 +6621,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="56"/>
       <c r="B8" s="52">
         <v>2002</v>
@@ -6528,7 +6651,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="56"/>
       <c r="B9" s="53" t="s">
         <v>351</v>
@@ -6558,7 +6681,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
@@ -6586,7 +6709,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
@@ -6614,7 +6737,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M12" s="77">
         <v>13</v>
       </c>
@@ -6631,7 +6754,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M13" s="77">
         <v>14</v>
       </c>
@@ -6648,7 +6771,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M14" s="77">
         <v>15</v>
       </c>
@@ -6665,7 +6788,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M15" s="77">
         <v>16</v>
       </c>
@@ -6682,7 +6805,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M16" s="77">
         <v>17</v>
       </c>
@@ -6699,7 +6822,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M17" s="77">
         <v>18</v>
       </c>
@@ -6716,7 +6839,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M18" s="77">
         <v>19</v>
       </c>
@@ -6733,7 +6856,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M19" s="77">
         <v>20</v>
       </c>
@@ -6750,7 +6873,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M20" s="77">
         <v>21</v>
       </c>
@@ -6767,7 +6890,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M21" s="77">
         <v>22</v>
       </c>
@@ -6784,7 +6907,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="22" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M22" s="77">
         <v>23</v>
       </c>
@@ -6801,7 +6924,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M23" s="77">
         <v>24</v>
       </c>
@@ -6818,7 +6941,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M24" s="77">
         <v>25</v>
       </c>
@@ -6835,7 +6958,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M25" s="77">
         <v>26</v>
       </c>
@@ -6852,7 +6975,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="26" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M26" s="77">
         <v>27</v>
       </c>
@@ -6869,7 +6992,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M27" s="77">
         <v>28</v>
       </c>
@@ -6886,7 +7009,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M28" s="77">
         <v>29</v>
       </c>
@@ -6899,7 +7022,7 @@
       <c r="P28" s="65"/>
       <c r="Q28" s="80"/>
     </row>
-    <row r="29" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M29" s="77">
         <v>30</v>
       </c>
@@ -6916,7 +7039,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="30" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M30" s="77">
         <v>31</v>
       </c>
@@ -6933,7 +7056,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="31" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M31" s="77">
         <v>32</v>
       </c>
@@ -6950,7 +7073,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="32" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M32" s="77">
         <v>33</v>
       </c>
@@ -6967,7 +7090,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M33" s="77">
         <v>34</v>
       </c>
@@ -6984,7 +7107,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="34" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M34" s="77">
         <v>35</v>
       </c>
@@ -7001,7 +7124,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="35" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M35" s="77">
         <v>36</v>
       </c>
@@ -7014,7 +7137,7 @@
       <c r="P35" s="69"/>
       <c r="Q35" s="81"/>
     </row>
-    <row r="36" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M36" s="77">
         <v>37</v>
       </c>
@@ -7031,7 +7154,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="37" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M37" s="77">
         <v>38</v>
       </c>
@@ -7048,7 +7171,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="38" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M38" s="77">
         <v>39</v>
       </c>
@@ -7065,7 +7188,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M39" s="77">
         <v>40</v>
       </c>
@@ -7082,7 +7205,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M40" s="77">
         <v>41</v>
       </c>
@@ -7099,7 +7222,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M41" s="77">
         <v>42</v>
       </c>
@@ -7116,7 +7239,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M42" s="77">
         <v>43</v>
       </c>
@@ -7133,7 +7256,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="43" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M43" s="77">
         <v>44</v>
       </c>
@@ -7150,7 +7273,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M44" s="77">
         <v>45</v>
       </c>
@@ -7167,7 +7290,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="45" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M45" s="77">
         <v>46</v>
       </c>
@@ -7184,7 +7307,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="46" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M46" s="77">
         <v>47</v>
       </c>
@@ -7201,7 +7324,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M47" s="77">
         <v>48</v>
       </c>
@@ -7218,7 +7341,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M48" s="77">
         <v>49</v>
       </c>
@@ -7235,7 +7358,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="49" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M49" s="77">
         <v>50</v>
       </c>
@@ -7252,7 +7375,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="50" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M50" s="77">
         <v>51</v>
       </c>
@@ -7269,7 +7392,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="51" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M51" s="77">
         <v>52</v>
       </c>
@@ -7286,7 +7409,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="52" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M52" s="77">
         <v>53</v>
       </c>
@@ -7303,7 +7426,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M53" s="77">
         <v>54</v>
       </c>
@@ -7320,7 +7443,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M54" s="77">
         <v>55</v>
       </c>
@@ -7337,7 +7460,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M55" s="77">
         <v>56</v>
       </c>
@@ -7354,7 +7477,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M56" s="77">
         <v>57</v>
       </c>
@@ -7371,7 +7494,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="57" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M57" s="77">
         <v>59</v>
       </c>
@@ -7388,7 +7511,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="58" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M58" s="77">
         <v>61</v>
       </c>
@@ -7405,7 +7528,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="59" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M59" s="77">
         <v>63</v>
       </c>
@@ -7422,7 +7545,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="60" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M60" s="77">
         <v>64</v>
       </c>
@@ -7439,7 +7562,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="61" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M61" s="77">
         <v>65</v>
       </c>
@@ -7456,7 +7579,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M62" s="77">
         <v>66</v>
       </c>
@@ -7473,7 +7596,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="63" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M63" s="77">
         <v>67</v>
       </c>
@@ -7490,7 +7613,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M64" s="77">
         <v>68</v>
       </c>
@@ -7507,7 +7630,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M65" s="77">
         <v>69</v>
       </c>
@@ -7524,7 +7647,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="66" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M66" s="77">
         <v>167</v>
       </c>
@@ -7535,7 +7658,7 @@
       <c r="P66" s="73"/>
       <c r="Q66" s="82"/>
     </row>
-    <row r="67" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M67" s="77">
         <v>168</v>
       </c>
@@ -7546,7 +7669,7 @@
       <c r="P67" s="73"/>
       <c r="Q67" s="82"/>
     </row>
-    <row r="68" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M68" s="77">
         <v>169</v>
       </c>
@@ -7557,7 +7680,7 @@
       <c r="P68" s="73"/>
       <c r="Q68" s="82"/>
     </row>
-    <row r="69" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M69" s="77">
         <v>170</v>
       </c>
@@ -7568,7 +7691,7 @@
       <c r="P69" s="73"/>
       <c r="Q69" s="82"/>
     </row>
-    <row r="70" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M70" s="77">
         <v>171</v>
       </c>
@@ -7579,7 +7702,7 @@
       <c r="P70" s="73"/>
       <c r="Q70" s="82"/>
     </row>
-    <row r="71" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M71" s="77">
         <v>172</v>
       </c>
@@ -7590,7 +7713,7 @@
       <c r="P71" s="73"/>
       <c r="Q71" s="82"/>
     </row>
-    <row r="72" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M72" s="77">
         <v>173</v>
       </c>
@@ -7601,7 +7724,7 @@
       <c r="P72" s="73"/>
       <c r="Q72" s="82"/>
     </row>
-    <row r="73" spans="13:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M73" s="83">
         <v>179</v>
       </c>
@@ -7624,42 +7747,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>343</v>
       </c>
@@ -7673,25 +7796,25 @@
         <v>304</v>
       </c>
       <c r="E2" s="49"/>
-      <c r="F2" s="95">
+      <c r="F2" s="103">
         <v>1</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="109" t="s">
         <v>345</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="100"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>308</v>
       </c>
@@ -7704,19 +7827,19 @@
       <c r="D3" s="51">
         <v>2000</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="103"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="104"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="114"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>10</v>
       </c>
@@ -7729,19 +7852,19 @@
       <c r="D4" s="52">
         <v>2001</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="106"/>
-    </row>
-    <row r="5" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="105"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="117"/>
+    </row>
+    <row r="5" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>11</v>
       </c>
@@ -7785,7 +7908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>309</v>
       </c>
@@ -7801,19 +7924,19 @@
       <c r="G6" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="109" t="s">
         <v>344</v>
       </c>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="100"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="111"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>310</v>
       </c>
@@ -7826,17 +7949,17 @@
       <c r="G7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="103"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="112"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="114"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>311</v>
       </c>
@@ -7849,17 +7972,17 @@
       <c r="G8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="103"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="112"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="114"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>312</v>
       </c>
@@ -7872,17 +7995,17 @@
       <c r="G9" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="103"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="112"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="114"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>313</v>
       </c>
@@ -7895,17 +8018,17 @@
       <c r="G10" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="103"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="112"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="114"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>314</v>
       </c>
@@ -7915,17 +8038,17 @@
       <c r="G11" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="106"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="117"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>315</v>
       </c>
@@ -7936,7 +8059,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>316</v>
       </c>
@@ -7947,7 +8070,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>317</v>
       </c>
@@ -7958,7 +8081,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>318</v>
       </c>
@@ -7969,7 +8092,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>319</v>
       </c>
@@ -7980,7 +8103,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>320</v>
       </c>
@@ -7991,7 +8114,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>321</v>
       </c>
@@ -8002,7 +8125,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>322</v>
       </c>
@@ -8013,7 +8136,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
         <v>323</v>
       </c>
@@ -8024,7 +8147,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>324</v>
       </c>
@@ -8035,7 +8158,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40" t="s">
         <v>325</v>
       </c>
@@ -8046,7 +8169,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="40" t="s">
         <v>326</v>
       </c>
@@ -8057,7 +8180,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
         <v>327</v>
       </c>
@@ -8065,7 +8188,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="41" t="s">
         <v>12</v>
       </c>
@@ -8073,7 +8196,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>13</v>
       </c>
@@ -8081,7 +8204,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="42" t="s">
         <v>14</v>
       </c>
@@ -8089,68 +8212,68 @@
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G28" s="41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G29" s="41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G30" s="42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F33" s="95">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F33" s="103">
         <v>2</v>
       </c>
-      <c r="G33" s="92" t="s">
+      <c r="G33" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="98" t="s">
+      <c r="H33" s="109" t="s">
         <v>346</v>
       </c>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="100"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F34" s="96"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="103"/>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="97"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="106"/>
-    </row>
-    <row r="36" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="111"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F34" s="104"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
+      <c r="P34" s="114"/>
+    </row>
+    <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="105"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="117"/>
+    </row>
+    <row r="36" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G36" s="4" t="s">
         <v>0</v>
       </c>
@@ -8182,151 +8305,151 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="34"/>
       <c r="G37" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="H37" s="98" t="s">
+      <c r="H37" s="109" t="s">
         <v>347</v>
       </c>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="99"/>
-      <c r="P37" s="100"/>
-    </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="110"/>
+      <c r="P37" s="111"/>
+    </row>
+    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G38" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="H38" s="101"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="102"/>
-      <c r="P38" s="103"/>
-    </row>
-    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="112"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="114"/>
+    </row>
+    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G39" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="H39" s="101"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="102"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="102"/>
-      <c r="N39" s="102"/>
-      <c r="O39" s="102"/>
-      <c r="P39" s="103"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="112"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="114"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G40" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="H40" s="101"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="102"/>
-      <c r="P40" s="103"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H40" s="112"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="114"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G41" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="H41" s="101"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="102"/>
-      <c r="L41" s="102"/>
-      <c r="M41" s="102"/>
-      <c r="N41" s="102"/>
-      <c r="O41" s="102"/>
-      <c r="P41" s="103"/>
-    </row>
-    <row r="42" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="112"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="114"/>
+    </row>
+    <row r="42" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G42" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="H42" s="104"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="106"/>
-    </row>
-    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="115"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="117"/>
+    </row>
+    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G43" s="39" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G44" s="48" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="95">
+    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="103">
         <v>3</v>
       </c>
-      <c r="G47" s="92" t="s">
+      <c r="G47" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="98" t="s">
+      <c r="H47" s="109" t="s">
         <v>348</v>
       </c>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="99"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="99"/>
-      <c r="O47" s="99"/>
-      <c r="P47" s="100"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F48" s="96"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="102"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="102"/>
-      <c r="O48" s="102"/>
-      <c r="P48" s="103"/>
-    </row>
-    <row r="49" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="97"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
-      <c r="M49" s="105"/>
-      <c r="N49" s="105"/>
-      <c r="O49" s="105"/>
-      <c r="P49" s="106"/>
-    </row>
-    <row r="50" spans="5:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="111"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F48" s="104"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="113"/>
+      <c r="N48" s="113"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="114"/>
+    </row>
+    <row r="49" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F49" s="105"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="116"/>
+      <c r="N49" s="116"/>
+      <c r="O49" s="116"/>
+      <c r="P49" s="117"/>
+    </row>
+    <row r="50" spans="5:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G50" s="4" t="s">
         <v>0</v>
       </c>
@@ -8358,111 +8481,111 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="H51" s="98" t="s">
+      <c r="H51" s="109" t="s">
         <v>349</v>
       </c>
-      <c r="I51" s="99"/>
-      <c r="J51" s="99"/>
-      <c r="K51" s="99"/>
-      <c r="L51" s="99"/>
-      <c r="M51" s="99"/>
-      <c r="N51" s="99"/>
-      <c r="O51" s="99"/>
-      <c r="P51" s="100"/>
-    </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="I51" s="110"/>
+      <c r="J51" s="110"/>
+      <c r="K51" s="110"/>
+      <c r="L51" s="110"/>
+      <c r="M51" s="110"/>
+      <c r="N51" s="110"/>
+      <c r="O51" s="110"/>
+      <c r="P51" s="111"/>
+    </row>
+    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="H52" s="101"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="102"/>
-      <c r="L52" s="102"/>
-      <c r="M52" s="102"/>
-      <c r="N52" s="102"/>
-      <c r="O52" s="102"/>
-      <c r="P52" s="103"/>
-    </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H52" s="112"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="113"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="113"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="114"/>
+    </row>
+    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="H53" s="101"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
-      <c r="K53" s="102"/>
-      <c r="L53" s="102"/>
-      <c r="M53" s="102"/>
-      <c r="N53" s="102"/>
-      <c r="O53" s="102"/>
-      <c r="P53" s="103"/>
-    </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H53" s="112"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="113"/>
+      <c r="M53" s="113"/>
+      <c r="N53" s="113"/>
+      <c r="O53" s="113"/>
+      <c r="P53" s="114"/>
+    </row>
+    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="H54" s="101"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
-      <c r="K54" s="102"/>
-      <c r="L54" s="102"/>
-      <c r="M54" s="102"/>
-      <c r="N54" s="102"/>
-      <c r="O54" s="102"/>
-      <c r="P54" s="103"/>
-    </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H54" s="112"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="113"/>
+      <c r="K54" s="113"/>
+      <c r="L54" s="113"/>
+      <c r="M54" s="113"/>
+      <c r="N54" s="113"/>
+      <c r="O54" s="113"/>
+      <c r="P54" s="114"/>
+    </row>
+    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="H55" s="101"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="102"/>
-      <c r="K55" s="102"/>
-      <c r="L55" s="102"/>
-      <c r="M55" s="102"/>
-      <c r="N55" s="102"/>
-      <c r="O55" s="102"/>
-      <c r="P55" s="103"/>
-    </row>
-    <row r="56" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="112"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="113"/>
+      <c r="L55" s="113"/>
+      <c r="M55" s="113"/>
+      <c r="N55" s="113"/>
+      <c r="O55" s="113"/>
+      <c r="P55" s="114"/>
+    </row>
+    <row r="56" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E56" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G56" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="H56" s="104"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="105"/>
-      <c r="L56" s="105"/>
-      <c r="M56" s="105"/>
-      <c r="N56" s="105"/>
-      <c r="O56" s="105"/>
-      <c r="P56" s="106"/>
-    </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H56" s="115"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="116"/>
+      <c r="N56" s="116"/>
+      <c r="O56" s="116"/>
+      <c r="P56" s="117"/>
+    </row>
+    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="s">
         <v>17</v>
       </c>
@@ -8470,7 +8593,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E58" s="1" t="s">
         <v>17</v>
       </c>
@@ -8478,7 +8601,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>17</v>
       </c>
@@ -8486,7 +8609,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E60" s="2" t="s">
         <v>15</v>
       </c>
@@ -8494,7 +8617,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E61" s="2" t="s">
         <v>16</v>
       </c>
@@ -8502,7 +8625,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E62" s="2" t="s">
         <v>16</v>
       </c>
@@ -8510,7 +8633,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
@@ -8518,7 +8641,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
@@ -8526,7 +8649,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E65" s="2" t="s">
         <v>18</v>
       </c>
@@ -8534,7 +8657,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E66" s="2" t="s">
         <v>18</v>
       </c>
@@ -8542,7 +8665,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E67" s="3" t="s">
         <v>23</v>
       </c>
@@ -8550,7 +8673,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E68" s="2" t="s">
         <v>22</v>
       </c>
@@ -8558,7 +8681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E69" s="2" t="s">
         <v>21</v>
       </c>
@@ -8566,7 +8689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E70" s="2" t="s">
         <v>18</v>
       </c>
@@ -8574,58 +8697,58 @@
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G71" s="47" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F73" s="95">
+    <row r="72" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="F73" s="103">
         <v>4</v>
       </c>
-      <c r="G73" s="92" t="s">
+      <c r="G73" s="106" t="s">
         <v>350</v>
       </c>
-      <c r="H73" s="98" t="s">
+      <c r="H73" s="109" t="s">
         <v>352</v>
       </c>
-      <c r="I73" s="99"/>
-      <c r="J73" s="99"/>
-      <c r="K73" s="99"/>
-      <c r="L73" s="99"/>
-      <c r="M73" s="99"/>
-      <c r="N73" s="99"/>
-      <c r="O73" s="99"/>
-      <c r="P73" s="100"/>
-    </row>
-    <row r="74" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F74" s="96"/>
-      <c r="G74" s="93"/>
-      <c r="H74" s="101"/>
-      <c r="I74" s="102"/>
-      <c r="J74" s="102"/>
-      <c r="K74" s="102"/>
-      <c r="L74" s="102"/>
-      <c r="M74" s="102"/>
-      <c r="N74" s="102"/>
-      <c r="O74" s="102"/>
-      <c r="P74" s="103"/>
-    </row>
-    <row r="75" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F75" s="97"/>
-      <c r="G75" s="94"/>
-      <c r="H75" s="104"/>
-      <c r="I75" s="105"/>
-      <c r="J75" s="105"/>
-      <c r="K75" s="105"/>
-      <c r="L75" s="105"/>
-      <c r="M75" s="105"/>
-      <c r="N75" s="105"/>
-      <c r="O75" s="105"/>
-      <c r="P75" s="106"/>
-    </row>
-    <row r="76" spans="5:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I73" s="110"/>
+      <c r="J73" s="110"/>
+      <c r="K73" s="110"/>
+      <c r="L73" s="110"/>
+      <c r="M73" s="110"/>
+      <c r="N73" s="110"/>
+      <c r="O73" s="110"/>
+      <c r="P73" s="111"/>
+    </row>
+    <row r="74" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="F74" s="104"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="112"/>
+      <c r="I74" s="113"/>
+      <c r="J74" s="113"/>
+      <c r="K74" s="113"/>
+      <c r="L74" s="113"/>
+      <c r="M74" s="113"/>
+      <c r="N74" s="113"/>
+      <c r="O74" s="113"/>
+      <c r="P74" s="114"/>
+    </row>
+    <row r="75" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F75" s="105"/>
+      <c r="G75" s="108"/>
+      <c r="H75" s="115"/>
+      <c r="I75" s="116"/>
+      <c r="J75" s="116"/>
+      <c r="K75" s="116"/>
+      <c r="L75" s="116"/>
+      <c r="M75" s="116"/>
+      <c r="N75" s="116"/>
+      <c r="O75" s="116"/>
+      <c r="P75" s="117"/>
+    </row>
+    <row r="76" spans="5:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G76" s="50" t="s">
         <v>304</v>
       </c>
@@ -8657,34 +8780,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G77" s="51">
         <v>2000</v>
       </c>
     </row>
-    <row r="78" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G78" s="52">
         <v>2001</v>
       </c>
     </row>
-    <row r="79" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:16" x14ac:dyDescent="0.3">
       <c r="G79" s="52">
         <v>2002</v>
       </c>
     </row>
-    <row r="80" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G80" s="53" t="s">
         <v>351</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="H73:P75"/>
-    <mergeCell ref="H37:P42"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:P49"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="F33:F35"/>
     <mergeCell ref="H51:P56"/>
@@ -8694,6 +8811,12 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G33:G35"/>
     <mergeCell ref="H33:P35"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="H73:P75"/>
+    <mergeCell ref="H37:P42"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:P49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
